--- a/outputs/expansao_ms_atualizado_form4.xlsx
+++ b/outputs/expansao_ms_atualizado_form4.xlsx
@@ -553,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -843,6 +843,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="24" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="27" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3246,7 +3249,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="H3" s="99" t="n"/>
+      <c r="H3" s="102" t="n"/>
       <c r="I3" s="99" t="n"/>
       <c r="J3" s="99" t="inlineStr">
         <is>
@@ -5086,13 +5089,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="102" t="inlineStr">
+      <c r="E2" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F2" s="99" t="n"/>
-      <c r="G2" s="103" t="inlineStr">
+      <c r="G2" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5124,18 +5127,18 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="102" t="inlineStr">
+      <c r="E3" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F3" s="99" t="n"/>
-      <c r="G3" s="103" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H3" s="99" t="n"/>
+      <c r="G3" s="104" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H3" s="102" t="n"/>
       <c r="I3" s="99" t="n"/>
       <c r="J3" s="99" t="inlineStr">
         <is>
@@ -5168,7 +5171,7 @@
         </is>
       </c>
       <c r="F4" s="99" t="n"/>
-      <c r="G4" s="103" t="inlineStr">
+      <c r="G4" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5200,13 +5203,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="102" t="inlineStr">
+      <c r="E5" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F5" s="99" t="n"/>
-      <c r="G5" s="103" t="inlineStr">
+      <c r="G5" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5238,13 +5241,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="102" t="inlineStr">
+      <c r="E6" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F6" s="99" t="n"/>
-      <c r="G6" s="103" t="inlineStr">
+      <c r="G6" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5276,13 +5279,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="102" t="inlineStr">
+      <c r="E7" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F7" s="99" t="n"/>
-      <c r="G7" s="103" t="inlineStr">
+      <c r="G7" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5314,7 +5317,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="104" t="inlineStr">
+      <c r="E8" s="105" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -5324,7 +5327,7 @@
           <t>23/09/2025</t>
         </is>
       </c>
-      <c r="G8" s="103" t="inlineStr">
+      <c r="G8" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5356,13 +5359,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="102" t="inlineStr">
+      <c r="E9" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F9" s="99" t="n"/>
-      <c r="G9" s="103" t="inlineStr">
+      <c r="G9" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5394,13 +5397,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="102" t="inlineStr">
+      <c r="E10" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F10" s="99" t="n"/>
-      <c r="G10" s="103" t="inlineStr">
+      <c r="G10" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5432,7 +5435,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="104" t="inlineStr">
+      <c r="E11" s="105" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -5442,7 +5445,7 @@
           <t>23/09/2025</t>
         </is>
       </c>
-      <c r="G11" s="103" t="inlineStr">
+      <c r="G11" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5474,13 +5477,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="102" t="inlineStr">
+      <c r="E12" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F12" s="99" t="n"/>
-      <c r="G12" s="103" t="inlineStr">
+      <c r="G12" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5512,13 +5515,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="102" t="inlineStr">
+      <c r="E13" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F13" s="99" t="n"/>
-      <c r="G13" s="103" t="inlineStr">
+      <c r="G13" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5550,13 +5553,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="102" t="inlineStr">
+      <c r="E14" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F14" s="99" t="n"/>
-      <c r="G14" s="103" t="inlineStr">
+      <c r="G14" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5588,13 +5591,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="102" t="inlineStr">
+      <c r="E15" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F15" s="99" t="n"/>
-      <c r="G15" s="103" t="inlineStr">
+      <c r="G15" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5626,13 +5629,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="102" t="inlineStr">
+      <c r="E16" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F16" s="99" t="n"/>
-      <c r="G16" s="103" t="inlineStr">
+      <c r="G16" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5664,13 +5667,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="102" t="inlineStr">
+      <c r="E17" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F17" s="99" t="n"/>
-      <c r="G17" s="103" t="inlineStr">
+      <c r="G17" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5702,13 +5705,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="102" t="inlineStr">
+      <c r="E18" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F18" s="99" t="n"/>
-      <c r="G18" s="103" t="inlineStr">
+      <c r="G18" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5740,7 +5743,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="104" t="inlineStr">
+      <c r="E19" s="105" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -5750,7 +5753,7 @@
           <t>19/09/2025</t>
         </is>
       </c>
-      <c r="G19" s="103" t="inlineStr">
+      <c r="G19" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5782,13 +5785,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="102" t="inlineStr">
+      <c r="E20" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F20" s="99" t="n"/>
-      <c r="G20" s="103" t="inlineStr">
+      <c r="G20" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5820,13 +5823,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="102" t="inlineStr">
+      <c r="E21" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F21" s="99" t="n"/>
-      <c r="G21" s="103" t="inlineStr">
+      <c r="G21" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5864,7 +5867,7 @@
         </is>
       </c>
       <c r="F22" s="99" t="n"/>
-      <c r="G22" s="103" t="inlineStr">
+      <c r="G22" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5896,13 +5899,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="102" t="inlineStr">
+      <c r="E23" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F23" s="99" t="n"/>
-      <c r="G23" s="103" t="inlineStr">
+      <c r="G23" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5940,7 +5943,7 @@
         </is>
       </c>
       <c r="F24" s="99" t="n"/>
-      <c r="G24" s="103" t="inlineStr">
+      <c r="G24" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5972,13 +5975,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="102" t="inlineStr">
+      <c r="E25" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F25" s="99" t="n"/>
-      <c r="G25" s="103" t="inlineStr">
+      <c r="G25" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6010,13 +6013,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="102" t="inlineStr">
+      <c r="E26" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F26" s="99" t="n"/>
-      <c r="G26" s="103" t="inlineStr">
+      <c r="G26" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6048,13 +6051,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="102" t="inlineStr">
+      <c r="E27" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F27" s="99" t="n"/>
-      <c r="G27" s="103" t="inlineStr">
+      <c r="G27" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6086,13 +6089,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="102" t="inlineStr">
+      <c r="E28" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F28" s="99" t="n"/>
-      <c r="G28" s="103" t="inlineStr">
+      <c r="G28" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6130,7 +6133,7 @@
         </is>
       </c>
       <c r="F29" s="99" t="n"/>
-      <c r="G29" s="103" t="inlineStr">
+      <c r="G29" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6162,13 +6165,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="102" t="inlineStr">
+      <c r="E30" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F30" s="99" t="n"/>
-      <c r="G30" s="103" t="inlineStr">
+      <c r="G30" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6200,13 +6203,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="102" t="inlineStr">
+      <c r="E31" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F31" s="99" t="n"/>
-      <c r="G31" s="103" t="inlineStr">
+      <c r="G31" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6238,13 +6241,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="102" t="inlineStr">
+      <c r="E32" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F32" s="99" t="n"/>
-      <c r="G32" s="103" t="inlineStr">
+      <c r="G32" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6276,13 +6279,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="102" t="inlineStr">
+      <c r="E33" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F33" s="99" t="n"/>
-      <c r="G33" s="103" t="inlineStr">
+      <c r="G33" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6314,7 +6317,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="104" t="inlineStr">
+      <c r="E34" s="105" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -6324,7 +6327,7 @@
           <t>25/09/2025</t>
         </is>
       </c>
-      <c r="G34" s="103" t="inlineStr">
+      <c r="G34" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6356,13 +6359,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="102" t="inlineStr">
+      <c r="E35" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F35" s="99" t="n"/>
-      <c r="G35" s="103" t="inlineStr">
+      <c r="G35" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6394,13 +6397,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="102" t="inlineStr">
+      <c r="E36" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F36" s="99" t="n"/>
-      <c r="G36" s="103" t="inlineStr">
+      <c r="G36" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6432,13 +6435,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="102" t="inlineStr">
+      <c r="E37" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F37" s="99" t="n"/>
-      <c r="G37" s="103" t="inlineStr">
+      <c r="G37" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6470,13 +6473,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="102" t="inlineStr">
+      <c r="E38" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F38" s="99" t="n"/>
-      <c r="G38" s="103" t="inlineStr">
+      <c r="G38" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6508,7 +6511,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="104" t="inlineStr">
+      <c r="E39" s="105" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -6518,7 +6521,7 @@
           <t>22/09/2025</t>
         </is>
       </c>
-      <c r="G39" s="103" t="inlineStr">
+      <c r="G39" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6550,13 +6553,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="102" t="inlineStr">
+      <c r="E40" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F40" s="99" t="n"/>
-      <c r="G40" s="103" t="inlineStr">
+      <c r="G40" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6588,13 +6591,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="102" t="inlineStr">
+      <c r="E41" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F41" s="99" t="n"/>
-      <c r="G41" s="103" t="inlineStr">
+      <c r="G41" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6626,13 +6629,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="102" t="inlineStr">
+      <c r="E42" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F42" s="99" t="n"/>
-      <c r="G42" s="103" t="inlineStr">
+      <c r="G42" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6664,13 +6667,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E43" s="102" t="inlineStr">
+      <c r="E43" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F43" s="99" t="n"/>
-      <c r="G43" s="103" t="inlineStr">
+      <c r="G43" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6702,13 +6705,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="102" t="inlineStr">
+      <c r="E44" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F44" s="99" t="n"/>
-      <c r="G44" s="103" t="inlineStr">
+      <c r="G44" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6740,13 +6743,13 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="102" t="inlineStr">
+      <c r="E45" s="103" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
       </c>
       <c r="F45" s="99" t="n"/>
-      <c r="G45" s="103" t="inlineStr">
+      <c r="G45" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6784,7 +6787,7 @@
         </is>
       </c>
       <c r="F46" s="99" t="n"/>
-      <c r="G46" s="103" t="inlineStr">
+      <c r="G46" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6816,7 +6819,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="104" t="inlineStr">
+      <c r="E47" s="105" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -6826,7 +6829,7 @@
           <t>22/09/2025</t>
         </is>
       </c>
-      <c r="G47" s="103" t="inlineStr">
+      <c r="G47" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7001,7 +7004,7 @@
       </c>
       <c r="E2" s="99" t="n"/>
       <c r="F2" s="99" t="n"/>
-      <c r="G2" s="103" t="inlineStr">
+      <c r="G2" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7035,12 +7038,12 @@
       </c>
       <c r="E3" s="99" t="n"/>
       <c r="F3" s="99" t="n"/>
-      <c r="G3" s="103" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H3" s="99" t="n"/>
+      <c r="G3" s="104" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H3" s="102" t="n"/>
       <c r="I3" s="99" t="n"/>
       <c r="J3" s="99" t="inlineStr">
         <is>
@@ -7073,7 +7076,7 @@
         </is>
       </c>
       <c r="F4" s="99" t="n"/>
-      <c r="G4" s="103" t="inlineStr">
+      <c r="G4" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7107,7 +7110,7 @@
       </c>
       <c r="E5" s="99" t="n"/>
       <c r="F5" s="99" t="n"/>
-      <c r="G5" s="103" t="inlineStr">
+      <c r="G5" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7141,7 +7144,7 @@
       </c>
       <c r="E6" s="99" t="n"/>
       <c r="F6" s="99" t="n"/>
-      <c r="G6" s="103" t="inlineStr">
+      <c r="G6" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7175,7 +7178,7 @@
       </c>
       <c r="E7" s="99" t="n"/>
       <c r="F7" s="99" t="n"/>
-      <c r="G7" s="103" t="inlineStr">
+      <c r="G7" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7209,7 +7212,7 @@
       </c>
       <c r="E8" s="99" t="n"/>
       <c r="F8" s="99" t="n"/>
-      <c r="G8" s="103" t="inlineStr">
+      <c r="G8" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7243,7 +7246,7 @@
       </c>
       <c r="E9" s="99" t="n"/>
       <c r="F9" s="99" t="n"/>
-      <c r="G9" s="103" t="inlineStr">
+      <c r="G9" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7277,7 +7280,7 @@
       </c>
       <c r="E10" s="99" t="n"/>
       <c r="F10" s="99" t="n"/>
-      <c r="G10" s="103" t="inlineStr">
+      <c r="G10" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7311,7 +7314,7 @@
       </c>
       <c r="E11" s="99" t="n"/>
       <c r="F11" s="99" t="n"/>
-      <c r="G11" s="103" t="inlineStr">
+      <c r="G11" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7345,7 +7348,7 @@
       </c>
       <c r="E12" s="99" t="n"/>
       <c r="F12" s="99" t="n"/>
-      <c r="G12" s="103" t="inlineStr">
+      <c r="G12" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7379,7 +7382,7 @@
       </c>
       <c r="E13" s="99" t="n"/>
       <c r="F13" s="99" t="n"/>
-      <c r="G13" s="103" t="inlineStr">
+      <c r="G13" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7413,7 +7416,7 @@
       </c>
       <c r="E14" s="99" t="n"/>
       <c r="F14" s="99" t="n"/>
-      <c r="G14" s="103" t="inlineStr">
+      <c r="G14" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7447,7 +7450,7 @@
       </c>
       <c r="E15" s="99" t="n"/>
       <c r="F15" s="99" t="n"/>
-      <c r="G15" s="103" t="inlineStr">
+      <c r="G15" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7481,7 +7484,7 @@
       </c>
       <c r="E16" s="99" t="n"/>
       <c r="F16" s="99" t="n"/>
-      <c r="G16" s="103" t="inlineStr">
+      <c r="G16" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7515,7 +7518,7 @@
       </c>
       <c r="E17" s="99" t="n"/>
       <c r="F17" s="99" t="n"/>
-      <c r="G17" s="103" t="inlineStr">
+      <c r="G17" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7549,7 +7552,7 @@
       </c>
       <c r="E18" s="99" t="n"/>
       <c r="F18" s="99" t="n"/>
-      <c r="G18" s="103" t="inlineStr">
+      <c r="G18" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7583,7 +7586,7 @@
       </c>
       <c r="E19" s="99" t="n"/>
       <c r="F19" s="99" t="n"/>
-      <c r="G19" s="103" t="inlineStr">
+      <c r="G19" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7617,7 +7620,7 @@
       </c>
       <c r="E20" s="99" t="n"/>
       <c r="F20" s="99" t="n"/>
-      <c r="G20" s="103" t="inlineStr">
+      <c r="G20" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7651,7 +7654,7 @@
       </c>
       <c r="E21" s="99" t="n"/>
       <c r="F21" s="99" t="n"/>
-      <c r="G21" s="103" t="inlineStr">
+      <c r="G21" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7689,7 +7692,7 @@
         </is>
       </c>
       <c r="F22" s="99" t="n"/>
-      <c r="G22" s="103" t="inlineStr">
+      <c r="G22" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7723,7 +7726,7 @@
       </c>
       <c r="E23" s="99" t="n"/>
       <c r="F23" s="99" t="n"/>
-      <c r="G23" s="103" t="inlineStr">
+      <c r="G23" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7761,7 +7764,7 @@
         </is>
       </c>
       <c r="F24" s="99" t="n"/>
-      <c r="G24" s="103" t="inlineStr">
+      <c r="G24" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7795,7 +7798,7 @@
       </c>
       <c r="E25" s="99" t="n"/>
       <c r="F25" s="99" t="n"/>
-      <c r="G25" s="103" t="inlineStr">
+      <c r="G25" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7829,7 +7832,7 @@
       </c>
       <c r="E26" s="99" t="n"/>
       <c r="F26" s="99" t="n"/>
-      <c r="G26" s="103" t="inlineStr">
+      <c r="G26" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7863,7 +7866,7 @@
       </c>
       <c r="E27" s="99" t="n"/>
       <c r="F27" s="99" t="n"/>
-      <c r="G27" s="103" t="inlineStr">
+      <c r="G27" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7897,7 +7900,7 @@
       </c>
       <c r="E28" s="99" t="n"/>
       <c r="F28" s="99" t="n"/>
-      <c r="G28" s="103" t="inlineStr">
+      <c r="G28" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7935,7 +7938,7 @@
         </is>
       </c>
       <c r="F29" s="99" t="n"/>
-      <c r="G29" s="103" t="inlineStr">
+      <c r="G29" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7969,7 +7972,7 @@
       </c>
       <c r="E30" s="99" t="n"/>
       <c r="F30" s="99" t="n"/>
-      <c r="G30" s="103" t="inlineStr">
+      <c r="G30" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8003,7 +8006,7 @@
       </c>
       <c r="E31" s="99" t="n"/>
       <c r="F31" s="99" t="n"/>
-      <c r="G31" s="103" t="inlineStr">
+      <c r="G31" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8037,7 +8040,7 @@
       </c>
       <c r="E32" s="99" t="n"/>
       <c r="F32" s="99" t="n"/>
-      <c r="G32" s="103" t="inlineStr">
+      <c r="G32" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8071,7 +8074,7 @@
       </c>
       <c r="E33" s="99" t="n"/>
       <c r="F33" s="99" t="n"/>
-      <c r="G33" s="103" t="inlineStr">
+      <c r="G33" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8105,7 +8108,7 @@
       </c>
       <c r="E34" s="99" t="n"/>
       <c r="F34" s="99" t="n"/>
-      <c r="G34" s="103" t="inlineStr">
+      <c r="G34" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8139,7 +8142,7 @@
       </c>
       <c r="E35" s="99" t="n"/>
       <c r="F35" s="99" t="n"/>
-      <c r="G35" s="103" t="inlineStr">
+      <c r="G35" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8173,7 +8176,7 @@
       </c>
       <c r="E36" s="99" t="n"/>
       <c r="F36" s="99" t="n"/>
-      <c r="G36" s="103" t="inlineStr">
+      <c r="G36" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8207,7 +8210,7 @@
       </c>
       <c r="E37" s="99" t="n"/>
       <c r="F37" s="99" t="n"/>
-      <c r="G37" s="103" t="inlineStr">
+      <c r="G37" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8241,7 +8244,7 @@
       </c>
       <c r="E38" s="99" t="n"/>
       <c r="F38" s="99" t="n"/>
-      <c r="G38" s="103" t="inlineStr">
+      <c r="G38" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8275,7 +8278,7 @@
       </c>
       <c r="E39" s="99" t="n"/>
       <c r="F39" s="99" t="n"/>
-      <c r="G39" s="103" t="inlineStr">
+      <c r="G39" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8309,7 +8312,7 @@
       </c>
       <c r="E40" s="99" t="n"/>
       <c r="F40" s="99" t="n"/>
-      <c r="G40" s="103" t="inlineStr">
+      <c r="G40" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8343,7 +8346,7 @@
       </c>
       <c r="E41" s="99" t="n"/>
       <c r="F41" s="99" t="n"/>
-      <c r="G41" s="103" t="inlineStr">
+      <c r="G41" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8377,7 +8380,7 @@
       </c>
       <c r="E42" s="99" t="n"/>
       <c r="F42" s="99" t="n"/>
-      <c r="G42" s="103" t="inlineStr">
+      <c r="G42" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8411,7 +8414,7 @@
       </c>
       <c r="E43" s="99" t="n"/>
       <c r="F43" s="99" t="n"/>
-      <c r="G43" s="103" t="inlineStr">
+      <c r="G43" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8445,7 +8448,7 @@
       </c>
       <c r="E44" s="99" t="n"/>
       <c r="F44" s="99" t="n"/>
-      <c r="G44" s="103" t="inlineStr">
+      <c r="G44" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8479,7 +8482,7 @@
       </c>
       <c r="E45" s="99" t="n"/>
       <c r="F45" s="99" t="n"/>
-      <c r="G45" s="103" t="inlineStr">
+      <c r="G45" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8517,7 +8520,7 @@
         </is>
       </c>
       <c r="F46" s="99" t="n"/>
-      <c r="G46" s="103" t="inlineStr">
+      <c r="G46" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8551,7 +8554,7 @@
       </c>
       <c r="E47" s="99" t="n"/>
       <c r="F47" s="99" t="n"/>
-      <c r="G47" s="103" t="inlineStr">
+      <c r="G47" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8726,7 +8729,7 @@
       </c>
       <c r="E2" s="99" t="n"/>
       <c r="F2" s="99" t="n"/>
-      <c r="G2" s="103" t="inlineStr">
+      <c r="G2" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8760,12 +8763,12 @@
       </c>
       <c r="E3" s="99" t="n"/>
       <c r="F3" s="99" t="n"/>
-      <c r="G3" s="103" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H3" s="99" t="n"/>
+      <c r="G3" s="104" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H3" s="102" t="n"/>
       <c r="I3" s="99" t="n"/>
       <c r="J3" s="99" t="inlineStr">
         <is>
@@ -8798,7 +8801,7 @@
         </is>
       </c>
       <c r="F4" s="99" t="n"/>
-      <c r="G4" s="103" t="inlineStr">
+      <c r="G4" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8832,7 +8835,7 @@
       </c>
       <c r="E5" s="99" t="n"/>
       <c r="F5" s="99" t="n"/>
-      <c r="G5" s="103" t="inlineStr">
+      <c r="G5" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8866,7 +8869,7 @@
       </c>
       <c r="E6" s="99" t="n"/>
       <c r="F6" s="99" t="n"/>
-      <c r="G6" s="103" t="inlineStr">
+      <c r="G6" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8900,7 +8903,7 @@
       </c>
       <c r="E7" s="99" t="n"/>
       <c r="F7" s="99" t="n"/>
-      <c r="G7" s="103" t="inlineStr">
+      <c r="G7" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8934,7 +8937,7 @@
       </c>
       <c r="E8" s="99" t="n"/>
       <c r="F8" s="99" t="n"/>
-      <c r="G8" s="103" t="inlineStr">
+      <c r="G8" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8968,7 +8971,7 @@
       </c>
       <c r="E9" s="99" t="n"/>
       <c r="F9" s="99" t="n"/>
-      <c r="G9" s="103" t="inlineStr">
+      <c r="G9" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9002,7 +9005,7 @@
       </c>
       <c r="E10" s="99" t="n"/>
       <c r="F10" s="99" t="n"/>
-      <c r="G10" s="103" t="inlineStr">
+      <c r="G10" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9036,7 +9039,7 @@
       </c>
       <c r="E11" s="99" t="n"/>
       <c r="F11" s="99" t="n"/>
-      <c r="G11" s="103" t="inlineStr">
+      <c r="G11" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9070,7 +9073,7 @@
       </c>
       <c r="E12" s="99" t="n"/>
       <c r="F12" s="99" t="n"/>
-      <c r="G12" s="103" t="inlineStr">
+      <c r="G12" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9104,7 +9107,7 @@
       </c>
       <c r="E13" s="99" t="n"/>
       <c r="F13" s="99" t="n"/>
-      <c r="G13" s="103" t="inlineStr">
+      <c r="G13" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9138,7 +9141,7 @@
       </c>
       <c r="E14" s="99" t="n"/>
       <c r="F14" s="99" t="n"/>
-      <c r="G14" s="103" t="inlineStr">
+      <c r="G14" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9172,7 +9175,7 @@
       </c>
       <c r="E15" s="99" t="n"/>
       <c r="F15" s="99" t="n"/>
-      <c r="G15" s="103" t="inlineStr">
+      <c r="G15" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9206,7 +9209,7 @@
       </c>
       <c r="E16" s="99" t="n"/>
       <c r="F16" s="99" t="n"/>
-      <c r="G16" s="103" t="inlineStr">
+      <c r="G16" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9240,7 +9243,7 @@
       </c>
       <c r="E17" s="99" t="n"/>
       <c r="F17" s="99" t="n"/>
-      <c r="G17" s="103" t="inlineStr">
+      <c r="G17" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9274,7 +9277,7 @@
       </c>
       <c r="E18" s="99" t="n"/>
       <c r="F18" s="99" t="n"/>
-      <c r="G18" s="103" t="inlineStr">
+      <c r="G18" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9308,7 +9311,7 @@
       </c>
       <c r="E19" s="99" t="n"/>
       <c r="F19" s="99" t="n"/>
-      <c r="G19" s="103" t="inlineStr">
+      <c r="G19" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9342,7 +9345,7 @@
       </c>
       <c r="E20" s="99" t="n"/>
       <c r="F20" s="99" t="n"/>
-      <c r="G20" s="103" t="inlineStr">
+      <c r="G20" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9376,7 +9379,7 @@
       </c>
       <c r="E21" s="99" t="n"/>
       <c r="F21" s="99" t="n"/>
-      <c r="G21" s="103" t="inlineStr">
+      <c r="G21" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9414,7 +9417,7 @@
         </is>
       </c>
       <c r="F22" s="99" t="n"/>
-      <c r="G22" s="103" t="inlineStr">
+      <c r="G22" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9448,7 +9451,7 @@
       </c>
       <c r="E23" s="99" t="n"/>
       <c r="F23" s="99" t="n"/>
-      <c r="G23" s="103" t="inlineStr">
+      <c r="G23" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9486,7 +9489,7 @@
         </is>
       </c>
       <c r="F24" s="99" t="n"/>
-      <c r="G24" s="103" t="inlineStr">
+      <c r="G24" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9520,7 +9523,7 @@
       </c>
       <c r="E25" s="99" t="n"/>
       <c r="F25" s="99" t="n"/>
-      <c r="G25" s="103" t="inlineStr">
+      <c r="G25" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9554,7 +9557,7 @@
       </c>
       <c r="E26" s="99" t="n"/>
       <c r="F26" s="99" t="n"/>
-      <c r="G26" s="103" t="inlineStr">
+      <c r="G26" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9588,7 +9591,7 @@
       </c>
       <c r="E27" s="99" t="n"/>
       <c r="F27" s="99" t="n"/>
-      <c r="G27" s="103" t="inlineStr">
+      <c r="G27" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9622,7 +9625,7 @@
       </c>
       <c r="E28" s="99" t="n"/>
       <c r="F28" s="99" t="n"/>
-      <c r="G28" s="103" t="inlineStr">
+      <c r="G28" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9660,7 +9663,7 @@
         </is>
       </c>
       <c r="F29" s="99" t="n"/>
-      <c r="G29" s="103" t="inlineStr">
+      <c r="G29" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9694,7 +9697,7 @@
       </c>
       <c r="E30" s="99" t="n"/>
       <c r="F30" s="99" t="n"/>
-      <c r="G30" s="103" t="inlineStr">
+      <c r="G30" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9728,7 +9731,7 @@
       </c>
       <c r="E31" s="99" t="n"/>
       <c r="F31" s="99" t="n"/>
-      <c r="G31" s="103" t="inlineStr">
+      <c r="G31" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9762,7 +9765,7 @@
       </c>
       <c r="E32" s="99" t="n"/>
       <c r="F32" s="99" t="n"/>
-      <c r="G32" s="103" t="inlineStr">
+      <c r="G32" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9796,7 +9799,7 @@
       </c>
       <c r="E33" s="99" t="n"/>
       <c r="F33" s="99" t="n"/>
-      <c r="G33" s="103" t="inlineStr">
+      <c r="G33" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9830,7 +9833,7 @@
       </c>
       <c r="E34" s="99" t="n"/>
       <c r="F34" s="99" t="n"/>
-      <c r="G34" s="103" t="inlineStr">
+      <c r="G34" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9864,7 +9867,7 @@
       </c>
       <c r="E35" s="99" t="n"/>
       <c r="F35" s="99" t="n"/>
-      <c r="G35" s="103" t="inlineStr">
+      <c r="G35" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9898,7 +9901,7 @@
       </c>
       <c r="E36" s="99" t="n"/>
       <c r="F36" s="99" t="n"/>
-      <c r="G36" s="103" t="inlineStr">
+      <c r="G36" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9932,7 +9935,7 @@
       </c>
       <c r="E37" s="99" t="n"/>
       <c r="F37" s="99" t="n"/>
-      <c r="G37" s="103" t="inlineStr">
+      <c r="G37" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9966,7 +9969,7 @@
       </c>
       <c r="E38" s="99" t="n"/>
       <c r="F38" s="99" t="n"/>
-      <c r="G38" s="103" t="inlineStr">
+      <c r="G38" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10000,7 +10003,7 @@
       </c>
       <c r="E39" s="99" t="n"/>
       <c r="F39" s="99" t="n"/>
-      <c r="G39" s="103" t="inlineStr">
+      <c r="G39" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10034,7 +10037,7 @@
       </c>
       <c r="E40" s="99" t="n"/>
       <c r="F40" s="99" t="n"/>
-      <c r="G40" s="103" t="inlineStr">
+      <c r="G40" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10068,7 +10071,7 @@
       </c>
       <c r="E41" s="99" t="n"/>
       <c r="F41" s="99" t="n"/>
-      <c r="G41" s="103" t="inlineStr">
+      <c r="G41" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10102,7 +10105,7 @@
       </c>
       <c r="E42" s="99" t="n"/>
       <c r="F42" s="99" t="n"/>
-      <c r="G42" s="103" t="inlineStr">
+      <c r="G42" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10136,7 +10139,7 @@
       </c>
       <c r="E43" s="99" t="n"/>
       <c r="F43" s="99" t="n"/>
-      <c r="G43" s="103" t="inlineStr">
+      <c r="G43" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10170,7 +10173,7 @@
       </c>
       <c r="E44" s="99" t="n"/>
       <c r="F44" s="99" t="n"/>
-      <c r="G44" s="103" t="inlineStr">
+      <c r="G44" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10204,7 +10207,7 @@
       </c>
       <c r="E45" s="99" t="n"/>
       <c r="F45" s="99" t="n"/>
-      <c r="G45" s="103" t="inlineStr">
+      <c r="G45" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10242,7 +10245,7 @@
         </is>
       </c>
       <c r="F46" s="99" t="n"/>
-      <c r="G46" s="103" t="inlineStr">
+      <c r="G46" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10276,7 +10279,7 @@
       </c>
       <c r="E47" s="99" t="n"/>
       <c r="F47" s="99" t="n"/>
-      <c r="G47" s="103" t="inlineStr">
+      <c r="G47" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10451,7 +10454,7 @@
       </c>
       <c r="E2" s="99" t="n"/>
       <c r="F2" s="99" t="n"/>
-      <c r="G2" s="103" t="inlineStr">
+      <c r="G2" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10485,12 +10488,12 @@
       </c>
       <c r="E3" s="99" t="n"/>
       <c r="F3" s="99" t="n"/>
-      <c r="G3" s="103" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H3" s="99" t="n"/>
+      <c r="G3" s="104" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H3" s="102" t="n"/>
       <c r="I3" s="99" t="n"/>
       <c r="J3" s="99" t="inlineStr">
         <is>
@@ -10523,7 +10526,7 @@
         </is>
       </c>
       <c r="F4" s="99" t="n"/>
-      <c r="G4" s="103" t="inlineStr">
+      <c r="G4" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10557,7 +10560,7 @@
       </c>
       <c r="E5" s="99" t="n"/>
       <c r="F5" s="99" t="n"/>
-      <c r="G5" s="103" t="inlineStr">
+      <c r="G5" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10591,7 +10594,7 @@
       </c>
       <c r="E6" s="99" t="n"/>
       <c r="F6" s="99" t="n"/>
-      <c r="G6" s="103" t="inlineStr">
+      <c r="G6" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10625,7 +10628,7 @@
       </c>
       <c r="E7" s="99" t="n"/>
       <c r="F7" s="99" t="n"/>
-      <c r="G7" s="103" t="inlineStr">
+      <c r="G7" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10659,7 +10662,7 @@
       </c>
       <c r="E8" s="99" t="n"/>
       <c r="F8" s="99" t="n"/>
-      <c r="G8" s="103" t="inlineStr">
+      <c r="G8" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10693,7 +10696,7 @@
       </c>
       <c r="E9" s="99" t="n"/>
       <c r="F9" s="99" t="n"/>
-      <c r="G9" s="103" t="inlineStr">
+      <c r="G9" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10727,7 +10730,7 @@
       </c>
       <c r="E10" s="99" t="n"/>
       <c r="F10" s="99" t="n"/>
-      <c r="G10" s="103" t="inlineStr">
+      <c r="G10" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10761,7 +10764,7 @@
       </c>
       <c r="E11" s="99" t="n"/>
       <c r="F11" s="99" t="n"/>
-      <c r="G11" s="103" t="inlineStr">
+      <c r="G11" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10795,7 +10798,7 @@
       </c>
       <c r="E12" s="99" t="n"/>
       <c r="F12" s="99" t="n"/>
-      <c r="G12" s="103" t="inlineStr">
+      <c r="G12" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10829,7 +10832,7 @@
       </c>
       <c r="E13" s="99" t="n"/>
       <c r="F13" s="99" t="n"/>
-      <c r="G13" s="103" t="inlineStr">
+      <c r="G13" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10863,7 +10866,7 @@
       </c>
       <c r="E14" s="99" t="n"/>
       <c r="F14" s="99" t="n"/>
-      <c r="G14" s="103" t="inlineStr">
+      <c r="G14" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10897,7 +10900,7 @@
       </c>
       <c r="E15" s="99" t="n"/>
       <c r="F15" s="99" t="n"/>
-      <c r="G15" s="103" t="inlineStr">
+      <c r="G15" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10931,7 +10934,7 @@
       </c>
       <c r="E16" s="99" t="n"/>
       <c r="F16" s="99" t="n"/>
-      <c r="G16" s="103" t="inlineStr">
+      <c r="G16" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10965,7 +10968,7 @@
       </c>
       <c r="E17" s="99" t="n"/>
       <c r="F17" s="99" t="n"/>
-      <c r="G17" s="103" t="inlineStr">
+      <c r="G17" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -10999,7 +11002,7 @@
       </c>
       <c r="E18" s="99" t="n"/>
       <c r="F18" s="99" t="n"/>
-      <c r="G18" s="103" t="inlineStr">
+      <c r="G18" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11033,7 +11036,7 @@
       </c>
       <c r="E19" s="99" t="n"/>
       <c r="F19" s="99" t="n"/>
-      <c r="G19" s="103" t="inlineStr">
+      <c r="G19" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11067,7 +11070,7 @@
       </c>
       <c r="E20" s="99" t="n"/>
       <c r="F20" s="99" t="n"/>
-      <c r="G20" s="103" t="inlineStr">
+      <c r="G20" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11101,7 +11104,7 @@
       </c>
       <c r="E21" s="99" t="n"/>
       <c r="F21" s="99" t="n"/>
-      <c r="G21" s="103" t="inlineStr">
+      <c r="G21" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11139,7 +11142,7 @@
         </is>
       </c>
       <c r="F22" s="99" t="n"/>
-      <c r="G22" s="103" t="inlineStr">
+      <c r="G22" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11173,7 +11176,7 @@
       </c>
       <c r="E23" s="99" t="n"/>
       <c r="F23" s="99" t="n"/>
-      <c r="G23" s="103" t="inlineStr">
+      <c r="G23" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11211,7 +11214,7 @@
         </is>
       </c>
       <c r="F24" s="99" t="n"/>
-      <c r="G24" s="103" t="inlineStr">
+      <c r="G24" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11245,7 +11248,7 @@
       </c>
       <c r="E25" s="99" t="n"/>
       <c r="F25" s="99" t="n"/>
-      <c r="G25" s="103" t="inlineStr">
+      <c r="G25" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11279,7 +11282,7 @@
       </c>
       <c r="E26" s="99" t="n"/>
       <c r="F26" s="99" t="n"/>
-      <c r="G26" s="103" t="inlineStr">
+      <c r="G26" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11313,7 +11316,7 @@
       </c>
       <c r="E27" s="99" t="n"/>
       <c r="F27" s="99" t="n"/>
-      <c r="G27" s="103" t="inlineStr">
+      <c r="G27" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11347,7 +11350,7 @@
       </c>
       <c r="E28" s="99" t="n"/>
       <c r="F28" s="99" t="n"/>
-      <c r="G28" s="103" t="inlineStr">
+      <c r="G28" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11385,7 +11388,7 @@
         </is>
       </c>
       <c r="F29" s="99" t="n"/>
-      <c r="G29" s="103" t="inlineStr">
+      <c r="G29" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11419,7 +11422,7 @@
       </c>
       <c r="E30" s="99" t="n"/>
       <c r="F30" s="99" t="n"/>
-      <c r="G30" s="103" t="inlineStr">
+      <c r="G30" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11453,7 +11456,7 @@
       </c>
       <c r="E31" s="99" t="n"/>
       <c r="F31" s="99" t="n"/>
-      <c r="G31" s="103" t="inlineStr">
+      <c r="G31" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11487,7 +11490,7 @@
       </c>
       <c r="E32" s="99" t="n"/>
       <c r="F32" s="99" t="n"/>
-      <c r="G32" s="103" t="inlineStr">
+      <c r="G32" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11521,7 +11524,7 @@
       </c>
       <c r="E33" s="99" t="n"/>
       <c r="F33" s="99" t="n"/>
-      <c r="G33" s="103" t="inlineStr">
+      <c r="G33" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11555,7 +11558,7 @@
       </c>
       <c r="E34" s="99" t="n"/>
       <c r="F34" s="99" t="n"/>
-      <c r="G34" s="103" t="inlineStr">
+      <c r="G34" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11589,7 +11592,7 @@
       </c>
       <c r="E35" s="99" t="n"/>
       <c r="F35" s="99" t="n"/>
-      <c r="G35" s="103" t="inlineStr">
+      <c r="G35" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11623,7 +11626,7 @@
       </c>
       <c r="E36" s="99" t="n"/>
       <c r="F36" s="99" t="n"/>
-      <c r="G36" s="103" t="inlineStr">
+      <c r="G36" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11657,7 +11660,7 @@
       </c>
       <c r="E37" s="99" t="n"/>
       <c r="F37" s="99" t="n"/>
-      <c r="G37" s="103" t="inlineStr">
+      <c r="G37" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11691,7 +11694,7 @@
       </c>
       <c r="E38" s="99" t="n"/>
       <c r="F38" s="99" t="n"/>
-      <c r="G38" s="103" t="inlineStr">
+      <c r="G38" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11725,7 +11728,7 @@
       </c>
       <c r="E39" s="99" t="n"/>
       <c r="F39" s="99" t="n"/>
-      <c r="G39" s="103" t="inlineStr">
+      <c r="G39" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11759,7 +11762,7 @@
       </c>
       <c r="E40" s="99" t="n"/>
       <c r="F40" s="99" t="n"/>
-      <c r="G40" s="103" t="inlineStr">
+      <c r="G40" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11793,7 +11796,7 @@
       </c>
       <c r="E41" s="99" t="n"/>
       <c r="F41" s="99" t="n"/>
-      <c r="G41" s="103" t="inlineStr">
+      <c r="G41" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11827,7 +11830,7 @@
       </c>
       <c r="E42" s="99" t="n"/>
       <c r="F42" s="99" t="n"/>
-      <c r="G42" s="103" t="inlineStr">
+      <c r="G42" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11861,7 +11864,7 @@
       </c>
       <c r="E43" s="99" t="n"/>
       <c r="F43" s="99" t="n"/>
-      <c r="G43" s="103" t="inlineStr">
+      <c r="G43" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11895,7 +11898,7 @@
       </c>
       <c r="E44" s="99" t="n"/>
       <c r="F44" s="99" t="n"/>
-      <c r="G44" s="103" t="inlineStr">
+      <c r="G44" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11929,7 +11932,7 @@
       </c>
       <c r="E45" s="99" t="n"/>
       <c r="F45" s="99" t="n"/>
-      <c r="G45" s="103" t="inlineStr">
+      <c r="G45" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11967,7 +11970,7 @@
         </is>
       </c>
       <c r="F46" s="99" t="n"/>
-      <c r="G46" s="103" t="inlineStr">
+      <c r="G46" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12001,7 +12004,7 @@
       </c>
       <c r="E47" s="99" t="n"/>
       <c r="F47" s="99" t="n"/>
-      <c r="G47" s="103" t="inlineStr">
+      <c r="G47" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12176,7 +12179,7 @@
       </c>
       <c r="E2" s="99" t="n"/>
       <c r="F2" s="99" t="n"/>
-      <c r="G2" s="103" t="inlineStr">
+      <c r="G2" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12210,12 +12213,12 @@
       </c>
       <c r="E3" s="99" t="n"/>
       <c r="F3" s="99" t="n"/>
-      <c r="G3" s="103" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H3" s="99" t="n"/>
+      <c r="G3" s="104" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H3" s="102" t="n"/>
       <c r="I3" s="99" t="n"/>
       <c r="J3" s="99" t="inlineStr">
         <is>
@@ -12248,7 +12251,7 @@
         </is>
       </c>
       <c r="F4" s="99" t="n"/>
-      <c r="G4" s="103" t="inlineStr">
+      <c r="G4" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12282,7 +12285,7 @@
       </c>
       <c r="E5" s="99" t="n"/>
       <c r="F5" s="99" t="n"/>
-      <c r="G5" s="103" t="inlineStr">
+      <c r="G5" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12316,7 +12319,7 @@
       </c>
       <c r="E6" s="99" t="n"/>
       <c r="F6" s="99" t="n"/>
-      <c r="G6" s="103" t="inlineStr">
+      <c r="G6" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12350,7 +12353,7 @@
       </c>
       <c r="E7" s="99" t="n"/>
       <c r="F7" s="99" t="n"/>
-      <c r="G7" s="103" t="inlineStr">
+      <c r="G7" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12384,7 +12387,7 @@
       </c>
       <c r="E8" s="99" t="n"/>
       <c r="F8" s="99" t="n"/>
-      <c r="G8" s="103" t="inlineStr">
+      <c r="G8" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12418,7 +12421,7 @@
       </c>
       <c r="E9" s="99" t="n"/>
       <c r="F9" s="99" t="n"/>
-      <c r="G9" s="103" t="inlineStr">
+      <c r="G9" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12452,7 +12455,7 @@
       </c>
       <c r="E10" s="99" t="n"/>
       <c r="F10" s="99" t="n"/>
-      <c r="G10" s="103" t="inlineStr">
+      <c r="G10" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12486,7 +12489,7 @@
       </c>
       <c r="E11" s="99" t="n"/>
       <c r="F11" s="99" t="n"/>
-      <c r="G11" s="103" t="inlineStr">
+      <c r="G11" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12520,7 +12523,7 @@
       </c>
       <c r="E12" s="99" t="n"/>
       <c r="F12" s="99" t="n"/>
-      <c r="G12" s="103" t="inlineStr">
+      <c r="G12" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12554,7 +12557,7 @@
       </c>
       <c r="E13" s="99" t="n"/>
       <c r="F13" s="99" t="n"/>
-      <c r="G13" s="103" t="inlineStr">
+      <c r="G13" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12588,7 +12591,7 @@
       </c>
       <c r="E14" s="99" t="n"/>
       <c r="F14" s="99" t="n"/>
-      <c r="G14" s="103" t="inlineStr">
+      <c r="G14" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12622,7 +12625,7 @@
       </c>
       <c r="E15" s="99" t="n"/>
       <c r="F15" s="99" t="n"/>
-      <c r="G15" s="103" t="inlineStr">
+      <c r="G15" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12656,7 +12659,7 @@
       </c>
       <c r="E16" s="99" t="n"/>
       <c r="F16" s="99" t="n"/>
-      <c r="G16" s="103" t="inlineStr">
+      <c r="G16" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12690,7 +12693,7 @@
       </c>
       <c r="E17" s="99" t="n"/>
       <c r="F17" s="99" t="n"/>
-      <c r="G17" s="103" t="inlineStr">
+      <c r="G17" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12724,7 +12727,7 @@
       </c>
       <c r="E18" s="99" t="n"/>
       <c r="F18" s="99" t="n"/>
-      <c r="G18" s="103" t="inlineStr">
+      <c r="G18" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12758,7 +12761,7 @@
       </c>
       <c r="E19" s="99" t="n"/>
       <c r="F19" s="99" t="n"/>
-      <c r="G19" s="103" t="inlineStr">
+      <c r="G19" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12792,7 +12795,7 @@
       </c>
       <c r="E20" s="99" t="n"/>
       <c r="F20" s="99" t="n"/>
-      <c r="G20" s="103" t="inlineStr">
+      <c r="G20" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12826,7 +12829,7 @@
       </c>
       <c r="E21" s="99" t="n"/>
       <c r="F21" s="99" t="n"/>
-      <c r="G21" s="103" t="inlineStr">
+      <c r="G21" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12864,7 +12867,7 @@
         </is>
       </c>
       <c r="F22" s="99" t="n"/>
-      <c r="G22" s="103" t="inlineStr">
+      <c r="G22" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12898,7 +12901,7 @@
       </c>
       <c r="E23" s="99" t="n"/>
       <c r="F23" s="99" t="n"/>
-      <c r="G23" s="103" t="inlineStr">
+      <c r="G23" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12936,7 +12939,7 @@
         </is>
       </c>
       <c r="F24" s="99" t="n"/>
-      <c r="G24" s="103" t="inlineStr">
+      <c r="G24" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12970,7 +12973,7 @@
       </c>
       <c r="E25" s="99" t="n"/>
       <c r="F25" s="99" t="n"/>
-      <c r="G25" s="103" t="inlineStr">
+      <c r="G25" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13004,7 +13007,7 @@
       </c>
       <c r="E26" s="99" t="n"/>
       <c r="F26" s="99" t="n"/>
-      <c r="G26" s="103" t="inlineStr">
+      <c r="G26" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13038,7 +13041,7 @@
       </c>
       <c r="E27" s="99" t="n"/>
       <c r="F27" s="99" t="n"/>
-      <c r="G27" s="103" t="inlineStr">
+      <c r="G27" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13072,7 +13075,7 @@
       </c>
       <c r="E28" s="99" t="n"/>
       <c r="F28" s="99" t="n"/>
-      <c r="G28" s="103" t="inlineStr">
+      <c r="G28" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13110,7 +13113,7 @@
         </is>
       </c>
       <c r="F29" s="99" t="n"/>
-      <c r="G29" s="103" t="inlineStr">
+      <c r="G29" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13144,7 +13147,7 @@
       </c>
       <c r="E30" s="99" t="n"/>
       <c r="F30" s="99" t="n"/>
-      <c r="G30" s="103" t="inlineStr">
+      <c r="G30" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13178,7 +13181,7 @@
       </c>
       <c r="E31" s="99" t="n"/>
       <c r="F31" s="99" t="n"/>
-      <c r="G31" s="103" t="inlineStr">
+      <c r="G31" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13212,7 +13215,7 @@
       </c>
       <c r="E32" s="99" t="n"/>
       <c r="F32" s="99" t="n"/>
-      <c r="G32" s="103" t="inlineStr">
+      <c r="G32" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13246,7 +13249,7 @@
       </c>
       <c r="E33" s="99" t="n"/>
       <c r="F33" s="99" t="n"/>
-      <c r="G33" s="103" t="inlineStr">
+      <c r="G33" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13280,7 +13283,7 @@
       </c>
       <c r="E34" s="99" t="n"/>
       <c r="F34" s="99" t="n"/>
-      <c r="G34" s="103" t="inlineStr">
+      <c r="G34" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13314,7 +13317,7 @@
       </c>
       <c r="E35" s="99" t="n"/>
       <c r="F35" s="99" t="n"/>
-      <c r="G35" s="103" t="inlineStr">
+      <c r="G35" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13348,7 +13351,7 @@
       </c>
       <c r="E36" s="99" t="n"/>
       <c r="F36" s="99" t="n"/>
-      <c r="G36" s="103" t="inlineStr">
+      <c r="G36" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13382,7 +13385,7 @@
       </c>
       <c r="E37" s="99" t="n"/>
       <c r="F37" s="99" t="n"/>
-      <c r="G37" s="103" t="inlineStr">
+      <c r="G37" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13416,7 +13419,7 @@
       </c>
       <c r="E38" s="99" t="n"/>
       <c r="F38" s="99" t="n"/>
-      <c r="G38" s="103" t="inlineStr">
+      <c r="G38" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13450,7 +13453,7 @@
       </c>
       <c r="E39" s="99" t="n"/>
       <c r="F39" s="99" t="n"/>
-      <c r="G39" s="103" t="inlineStr">
+      <c r="G39" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13484,7 +13487,7 @@
       </c>
       <c r="E40" s="99" t="n"/>
       <c r="F40" s="99" t="n"/>
-      <c r="G40" s="103" t="inlineStr">
+      <c r="G40" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13518,7 +13521,7 @@
       </c>
       <c r="E41" s="99" t="n"/>
       <c r="F41" s="99" t="n"/>
-      <c r="G41" s="103" t="inlineStr">
+      <c r="G41" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13552,7 +13555,7 @@
       </c>
       <c r="E42" s="99" t="n"/>
       <c r="F42" s="99" t="n"/>
-      <c r="G42" s="103" t="inlineStr">
+      <c r="G42" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13586,7 +13589,7 @@
       </c>
       <c r="E43" s="99" t="n"/>
       <c r="F43" s="99" t="n"/>
-      <c r="G43" s="103" t="inlineStr">
+      <c r="G43" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13620,7 +13623,7 @@
       </c>
       <c r="E44" s="99" t="n"/>
       <c r="F44" s="99" t="n"/>
-      <c r="G44" s="103" t="inlineStr">
+      <c r="G44" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13654,7 +13657,7 @@
       </c>
       <c r="E45" s="99" t="n"/>
       <c r="F45" s="99" t="n"/>
-      <c r="G45" s="103" t="inlineStr">
+      <c r="G45" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13692,7 +13695,7 @@
         </is>
       </c>
       <c r="F46" s="99" t="n"/>
-      <c r="G46" s="103" t="inlineStr">
+      <c r="G46" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13726,7 +13729,7 @@
       </c>
       <c r="E47" s="99" t="n"/>
       <c r="F47" s="99" t="n"/>
-      <c r="G47" s="103" t="inlineStr">
+      <c r="G47" s="104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -41949,7 +41952,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="H3" s="99" t="n"/>
+      <c r="H3" s="102" t="n"/>
       <c r="I3" s="99" t="n"/>
       <c r="J3" s="99" t="inlineStr">
         <is>
@@ -43838,7 +43841,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="H3" s="99" t="n"/>
+      <c r="H3" s="102" t="n"/>
       <c r="I3" s="99" t="n"/>
       <c r="J3" s="99" t="inlineStr">
         <is>
@@ -45727,7 +45730,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="H3" s="99" t="n"/>
+      <c r="H3" s="102" t="n"/>
       <c r="I3" s="99" t="n"/>
       <c r="J3" s="99" t="inlineStr">
         <is>
@@ -47616,7 +47619,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="H3" s="99" t="n"/>
+      <c r="H3" s="102" t="n"/>
       <c r="I3" s="99" t="n"/>
       <c r="J3" s="99" t="inlineStr">
         <is>
@@ -49505,7 +49508,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="H3" s="99" t="n"/>
+      <c r="H3" s="102" t="n"/>
       <c r="I3" s="99" t="n"/>
       <c r="J3" s="99" t="inlineStr">
         <is>

--- a/outputs/expansao_ms_atualizado_form4.xlsx
+++ b/outputs/expansao_ms_atualizado_form4.xlsx
@@ -149,7 +149,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill/>
     </fill>
@@ -290,6 +290,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF006400"/>
+        <bgColor rgb="FF006400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6666"/>
+        <bgColor rgb="FFFF6666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="0066FF66"/>
         <bgColor rgb="0066FF66"/>
       </patternFill>
@@ -338,12 +350,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF6400"/>
-        <bgColor rgb="00FF6400"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00006400"/>
         <bgColor rgb="00006400"/>
       </patternFill>
@@ -352,6 +358,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00A020F0"/>
         <bgColor rgb="00A020F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF6400"/>
+        <bgColor rgb="00FF6400"/>
       </patternFill>
     </fill>
   </fills>
@@ -589,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -871,22 +883,16 @@
     <xf numFmtId="0" fontId="17" fillId="23" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="26" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="28" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -895,19 +901,31 @@
     <xf numFmtId="0" fontId="15" fillId="29" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="31" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5059,7 +5077,7 @@
     <col width="32" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
     <col width="27" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
@@ -5145,7 +5163,7 @@
       </c>
       <c r="E2" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F2" s="100" t="n"/>
@@ -5183,7 +5201,7 @@
       </c>
       <c r="E3" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F3" s="100" t="n"/>
@@ -5259,7 +5277,7 @@
       </c>
       <c r="E5" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F5" s="100" t="n"/>
@@ -5297,7 +5315,7 @@
       </c>
       <c r="E6" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F6" s="100" t="n"/>
@@ -5335,7 +5353,7 @@
       </c>
       <c r="E7" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F7" s="100" t="n"/>
@@ -5415,7 +5433,7 @@
       </c>
       <c r="E9" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F9" s="100" t="n"/>
@@ -5453,7 +5471,7 @@
       </c>
       <c r="E10" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F10" s="100" t="n"/>
@@ -5533,7 +5551,7 @@
       </c>
       <c r="E12" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F12" s="100" t="n"/>
@@ -5571,7 +5589,7 @@
       </c>
       <c r="E13" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F13" s="100" t="n"/>
@@ -5609,7 +5627,7 @@
       </c>
       <c r="E14" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F14" s="100" t="n"/>
@@ -5647,7 +5665,7 @@
       </c>
       <c r="E15" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F15" s="100" t="n"/>
@@ -5685,7 +5703,7 @@
       </c>
       <c r="E16" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F16" s="100" t="n"/>
@@ -5723,7 +5741,7 @@
       </c>
       <c r="E17" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F17" s="100" t="n"/>
@@ -5761,7 +5779,7 @@
       </c>
       <c r="E18" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F18" s="100" t="n"/>
@@ -5841,7 +5859,7 @@
       </c>
       <c r="E20" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F20" s="100" t="n"/>
@@ -5879,7 +5897,7 @@
       </c>
       <c r="E21" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F21" s="100" t="n"/>
@@ -5955,7 +5973,7 @@
       </c>
       <c r="E23" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F23" s="100" t="n"/>
@@ -6031,7 +6049,7 @@
       </c>
       <c r="E25" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F25" s="100" t="n"/>
@@ -6069,7 +6087,7 @@
       </c>
       <c r="E26" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F26" s="100" t="n"/>
@@ -6107,7 +6125,7 @@
       </c>
       <c r="E27" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F27" s="100" t="n"/>
@@ -6225,7 +6243,7 @@
       </c>
       <c r="E30" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F30" s="100" t="n"/>
@@ -6263,7 +6281,7 @@
       </c>
       <c r="E31" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F31" s="100" t="n"/>
@@ -6301,7 +6319,7 @@
       </c>
       <c r="E32" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F32" s="100" t="n"/>
@@ -6339,7 +6357,7 @@
       </c>
       <c r="E33" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F33" s="100" t="n"/>
@@ -6419,7 +6437,7 @@
       </c>
       <c r="E35" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F35" s="100" t="n"/>
@@ -6457,7 +6475,7 @@
       </c>
       <c r="E36" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F36" s="100" t="n"/>
@@ -6495,7 +6513,7 @@
       </c>
       <c r="E37" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F37" s="100" t="n"/>
@@ -6533,7 +6551,7 @@
       </c>
       <c r="E38" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F38" s="100" t="n"/>
@@ -6613,7 +6631,7 @@
       </c>
       <c r="E40" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F40" s="100" t="n"/>
@@ -6651,7 +6669,7 @@
       </c>
       <c r="E41" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F41" s="100" t="n"/>
@@ -6689,7 +6707,7 @@
       </c>
       <c r="E42" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F42" s="100" t="n"/>
@@ -6727,7 +6745,7 @@
       </c>
       <c r="E43" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F43" s="100" t="n"/>
@@ -6807,7 +6825,7 @@
       </c>
       <c r="E45" s="108" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F45" s="100" t="n"/>
@@ -7064,7 +7082,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="100" t="n"/>
+      <c r="E2" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F2" s="100" t="n"/>
       <c r="G2" s="109" t="inlineStr">
         <is>
@@ -7098,7 +7120,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="100" t="n"/>
+      <c r="E3" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F3" s="100" t="n"/>
       <c r="G3" s="109" t="inlineStr">
         <is>
@@ -7170,7 +7196,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="100" t="n"/>
+      <c r="E5" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F5" s="100" t="n"/>
       <c r="G5" s="109" t="inlineStr">
         <is>
@@ -7204,7 +7234,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="100" t="n"/>
+      <c r="E6" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F6" s="100" t="n"/>
       <c r="G6" s="109" t="inlineStr">
         <is>
@@ -7238,7 +7272,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="100" t="n"/>
+      <c r="E7" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F7" s="100" t="n"/>
       <c r="G7" s="109" t="inlineStr">
         <is>
@@ -7272,7 +7310,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="100" t="n"/>
+      <c r="E8" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F8" s="100" t="n"/>
       <c r="G8" s="109" t="inlineStr">
         <is>
@@ -7306,7 +7348,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="100" t="n"/>
+      <c r="E9" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F9" s="100" t="n"/>
       <c r="G9" s="109" t="inlineStr">
         <is>
@@ -7340,7 +7386,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="100" t="n"/>
+      <c r="E10" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F10" s="100" t="n"/>
       <c r="G10" s="109" t="inlineStr">
         <is>
@@ -7374,7 +7424,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="100" t="n"/>
+      <c r="E11" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F11" s="100" t="n"/>
       <c r="G11" s="109" t="inlineStr">
         <is>
@@ -7408,7 +7462,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="100" t="n"/>
+      <c r="E12" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F12" s="100" t="n"/>
       <c r="G12" s="109" t="inlineStr">
         <is>
@@ -7442,7 +7500,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="100" t="n"/>
+      <c r="E13" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F13" s="100" t="n"/>
       <c r="G13" s="109" t="inlineStr">
         <is>
@@ -7476,7 +7538,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="100" t="n"/>
+      <c r="E14" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F14" s="100" t="n"/>
       <c r="G14" s="109" t="inlineStr">
         <is>
@@ -7510,7 +7576,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="100" t="n"/>
+      <c r="E15" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F15" s="100" t="n"/>
       <c r="G15" s="109" t="inlineStr">
         <is>
@@ -7544,7 +7614,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="100" t="n"/>
+      <c r="E16" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F16" s="100" t="n"/>
       <c r="G16" s="109" t="inlineStr">
         <is>
@@ -7578,7 +7652,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="100" t="n"/>
+      <c r="E17" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F17" s="100" t="n"/>
       <c r="G17" s="109" t="inlineStr">
         <is>
@@ -7612,7 +7690,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="100" t="n"/>
+      <c r="E18" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F18" s="100" t="n"/>
       <c r="G18" s="109" t="inlineStr">
         <is>
@@ -7646,7 +7728,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="100" t="n"/>
+      <c r="E19" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F19" s="100" t="n"/>
       <c r="G19" s="109" t="inlineStr">
         <is>
@@ -7680,7 +7766,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="100" t="n"/>
+      <c r="E20" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F20" s="100" t="n"/>
       <c r="G20" s="109" t="inlineStr">
         <is>
@@ -7714,7 +7804,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="100" t="n"/>
+      <c r="E21" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F21" s="100" t="n"/>
       <c r="G21" s="109" t="inlineStr">
         <is>
@@ -7786,7 +7880,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="100" t="n"/>
+      <c r="E23" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F23" s="100" t="n"/>
       <c r="G23" s="109" t="inlineStr">
         <is>
@@ -7858,7 +7956,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="100" t="n"/>
+      <c r="E25" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F25" s="100" t="n"/>
       <c r="G25" s="109" t="inlineStr">
         <is>
@@ -7892,7 +7994,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="100" t="n"/>
+      <c r="E26" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F26" s="100" t="n"/>
       <c r="G26" s="109" t="inlineStr">
         <is>
@@ -7926,7 +8032,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="100" t="n"/>
+      <c r="E27" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F27" s="100" t="n"/>
       <c r="G27" s="109" t="inlineStr">
         <is>
@@ -7960,7 +8070,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="100" t="n"/>
+      <c r="E28" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F28" s="100" t="n"/>
       <c r="G28" s="109" t="inlineStr">
         <is>
@@ -8032,7 +8146,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="100" t="n"/>
+      <c r="E30" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F30" s="100" t="n"/>
       <c r="G30" s="109" t="inlineStr">
         <is>
@@ -8066,7 +8184,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="100" t="n"/>
+      <c r="E31" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F31" s="100" t="n"/>
       <c r="G31" s="109" t="inlineStr">
         <is>
@@ -8100,7 +8222,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="100" t="n"/>
+      <c r="E32" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F32" s="100" t="n"/>
       <c r="G32" s="109" t="inlineStr">
         <is>
@@ -8134,7 +8260,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="100" t="n"/>
+      <c r="E33" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F33" s="100" t="n"/>
       <c r="G33" s="109" t="inlineStr">
         <is>
@@ -8168,7 +8298,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="100" t="n"/>
+      <c r="E34" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F34" s="100" t="n"/>
       <c r="G34" s="109" t="inlineStr">
         <is>
@@ -8202,7 +8336,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="100" t="n"/>
+      <c r="E35" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F35" s="100" t="n"/>
       <c r="G35" s="109" t="inlineStr">
         <is>
@@ -8236,7 +8374,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="100" t="n"/>
+      <c r="E36" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F36" s="100" t="n"/>
       <c r="G36" s="109" t="inlineStr">
         <is>
@@ -8270,7 +8412,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="100" t="n"/>
+      <c r="E37" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F37" s="100" t="n"/>
       <c r="G37" s="109" t="inlineStr">
         <is>
@@ -8304,7 +8450,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="100" t="n"/>
+      <c r="E38" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F38" s="100" t="n"/>
       <c r="G38" s="109" t="inlineStr">
         <is>
@@ -8338,7 +8488,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="100" t="n"/>
+      <c r="E39" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F39" s="100" t="n"/>
       <c r="G39" s="109" t="inlineStr">
         <is>
@@ -8372,7 +8526,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="100" t="n"/>
+      <c r="E40" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F40" s="100" t="n"/>
       <c r="G40" s="109" t="inlineStr">
         <is>
@@ -8406,7 +8564,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="100" t="n"/>
+      <c r="E41" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F41" s="100" t="n"/>
       <c r="G41" s="109" t="inlineStr">
         <is>
@@ -8440,7 +8602,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="100" t="n"/>
+      <c r="E42" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F42" s="100" t="n"/>
       <c r="G42" s="109" t="inlineStr">
         <is>
@@ -8474,7 +8640,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E43" s="100" t="n"/>
+      <c r="E43" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F43" s="100" t="n"/>
       <c r="G43" s="109" t="inlineStr">
         <is>
@@ -8508,7 +8678,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="100" t="n"/>
+      <c r="E44" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F44" s="100" t="n"/>
       <c r="G44" s="109" t="inlineStr">
         <is>
@@ -8542,7 +8716,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="100" t="n"/>
+      <c r="E45" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F45" s="100" t="n"/>
       <c r="G45" s="109" t="inlineStr">
         <is>
@@ -8614,7 +8792,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="100" t="n"/>
+      <c r="E47" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F47" s="100" t="n"/>
       <c r="G47" s="109" t="inlineStr">
         <is>
@@ -8789,7 +8971,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="100" t="n"/>
+      <c r="E2" s="113" t="n"/>
       <c r="F2" s="100" t="n"/>
       <c r="G2" s="109" t="inlineStr">
         <is>
@@ -8823,7 +9005,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="100" t="n"/>
+      <c r="E3" s="113" t="n"/>
       <c r="F3" s="100" t="n"/>
       <c r="G3" s="109" t="inlineStr">
         <is>
@@ -8895,7 +9077,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="100" t="n"/>
+      <c r="E5" s="113" t="n"/>
       <c r="F5" s="100" t="n"/>
       <c r="G5" s="109" t="inlineStr">
         <is>
@@ -8929,7 +9111,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="100" t="n"/>
+      <c r="E6" s="113" t="n"/>
       <c r="F6" s="100" t="n"/>
       <c r="G6" s="109" t="inlineStr">
         <is>
@@ -8963,7 +9145,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="100" t="n"/>
+      <c r="E7" s="113" t="n"/>
       <c r="F7" s="100" t="n"/>
       <c r="G7" s="109" t="inlineStr">
         <is>
@@ -8997,7 +9179,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="100" t="n"/>
+      <c r="E8" s="113" t="n"/>
       <c r="F8" s="100" t="n"/>
       <c r="G8" s="109" t="inlineStr">
         <is>
@@ -9031,7 +9213,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="100" t="n"/>
+      <c r="E9" s="113" t="n"/>
       <c r="F9" s="100" t="n"/>
       <c r="G9" s="109" t="inlineStr">
         <is>
@@ -9065,7 +9247,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="100" t="n"/>
+      <c r="E10" s="113" t="n"/>
       <c r="F10" s="100" t="n"/>
       <c r="G10" s="109" t="inlineStr">
         <is>
@@ -9099,7 +9281,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="100" t="n"/>
+      <c r="E11" s="113" t="n"/>
       <c r="F11" s="100" t="n"/>
       <c r="G11" s="109" t="inlineStr">
         <is>
@@ -9133,7 +9315,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="100" t="n"/>
+      <c r="E12" s="113" t="n"/>
       <c r="F12" s="100" t="n"/>
       <c r="G12" s="109" t="inlineStr">
         <is>
@@ -9167,7 +9349,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="100" t="n"/>
+      <c r="E13" s="113" t="n"/>
       <c r="F13" s="100" t="n"/>
       <c r="G13" s="109" t="inlineStr">
         <is>
@@ -9201,7 +9383,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="100" t="n"/>
+      <c r="E14" s="113" t="n"/>
       <c r="F14" s="100" t="n"/>
       <c r="G14" s="109" t="inlineStr">
         <is>
@@ -9235,7 +9417,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="100" t="n"/>
+      <c r="E15" s="113" t="n"/>
       <c r="F15" s="100" t="n"/>
       <c r="G15" s="109" t="inlineStr">
         <is>
@@ -9269,7 +9451,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="100" t="n"/>
+      <c r="E16" s="113" t="n"/>
       <c r="F16" s="100" t="n"/>
       <c r="G16" s="109" t="inlineStr">
         <is>
@@ -9303,7 +9485,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="100" t="n"/>
+      <c r="E17" s="113" t="n"/>
       <c r="F17" s="100" t="n"/>
       <c r="G17" s="109" t="inlineStr">
         <is>
@@ -9337,7 +9519,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="100" t="n"/>
+      <c r="E18" s="113" t="n"/>
       <c r="F18" s="100" t="n"/>
       <c r="G18" s="109" t="inlineStr">
         <is>
@@ -9371,7 +9553,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="100" t="n"/>
+      <c r="E19" s="113" t="n"/>
       <c r="F19" s="100" t="n"/>
       <c r="G19" s="109" t="inlineStr">
         <is>
@@ -9405,7 +9587,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="100" t="n"/>
+      <c r="E20" s="113" t="n"/>
       <c r="F20" s="100" t="n"/>
       <c r="G20" s="109" t="inlineStr">
         <is>
@@ -9439,7 +9621,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="100" t="n"/>
+      <c r="E21" s="113" t="n"/>
       <c r="F21" s="100" t="n"/>
       <c r="G21" s="109" t="inlineStr">
         <is>
@@ -9511,7 +9693,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="100" t="n"/>
+      <c r="E23" s="113" t="n"/>
       <c r="F23" s="100" t="n"/>
       <c r="G23" s="109" t="inlineStr">
         <is>
@@ -9583,7 +9765,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="100" t="n"/>
+      <c r="E25" s="113" t="n"/>
       <c r="F25" s="100" t="n"/>
       <c r="G25" s="109" t="inlineStr">
         <is>
@@ -9617,7 +9799,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="100" t="n"/>
+      <c r="E26" s="113" t="n"/>
       <c r="F26" s="100" t="n"/>
       <c r="G26" s="109" t="inlineStr">
         <is>
@@ -9651,7 +9833,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="100" t="n"/>
+      <c r="E27" s="113" t="n"/>
       <c r="F27" s="100" t="n"/>
       <c r="G27" s="109" t="inlineStr">
         <is>
@@ -9685,7 +9867,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="100" t="n"/>
+      <c r="E28" s="113" t="n"/>
       <c r="F28" s="100" t="n"/>
       <c r="G28" s="109" t="inlineStr">
         <is>
@@ -9757,7 +9939,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="100" t="n"/>
+      <c r="E30" s="113" t="n"/>
       <c r="F30" s="100" t="n"/>
       <c r="G30" s="109" t="inlineStr">
         <is>
@@ -9791,7 +9973,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="100" t="n"/>
+      <c r="E31" s="113" t="n"/>
       <c r="F31" s="100" t="n"/>
       <c r="G31" s="109" t="inlineStr">
         <is>
@@ -9825,7 +10007,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="100" t="n"/>
+      <c r="E32" s="113" t="n"/>
       <c r="F32" s="100" t="n"/>
       <c r="G32" s="109" t="inlineStr">
         <is>
@@ -9859,7 +10041,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="100" t="n"/>
+      <c r="E33" s="113" t="n"/>
       <c r="F33" s="100" t="n"/>
       <c r="G33" s="109" t="inlineStr">
         <is>
@@ -9893,7 +10075,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="100" t="n"/>
+      <c r="E34" s="113" t="n"/>
       <c r="F34" s="100" t="n"/>
       <c r="G34" s="109" t="inlineStr">
         <is>
@@ -9927,7 +10109,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="100" t="n"/>
+      <c r="E35" s="113" t="n"/>
       <c r="F35" s="100" t="n"/>
       <c r="G35" s="109" t="inlineStr">
         <is>
@@ -9961,7 +10143,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="100" t="n"/>
+      <c r="E36" s="113" t="n"/>
       <c r="F36" s="100" t="n"/>
       <c r="G36" s="109" t="inlineStr">
         <is>
@@ -9995,7 +10177,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="100" t="n"/>
+      <c r="E37" s="113" t="n"/>
       <c r="F37" s="100" t="n"/>
       <c r="G37" s="109" t="inlineStr">
         <is>
@@ -10029,7 +10211,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="100" t="n"/>
+      <c r="E38" s="113" t="n"/>
       <c r="F38" s="100" t="n"/>
       <c r="G38" s="109" t="inlineStr">
         <is>
@@ -10063,7 +10245,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="100" t="n"/>
+      <c r="E39" s="113" t="n"/>
       <c r="F39" s="100" t="n"/>
       <c r="G39" s="109" t="inlineStr">
         <is>
@@ -10097,7 +10279,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="100" t="n"/>
+      <c r="E40" s="113" t="n"/>
       <c r="F40" s="100" t="n"/>
       <c r="G40" s="109" t="inlineStr">
         <is>
@@ -10131,7 +10313,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="100" t="n"/>
+      <c r="E41" s="113" t="n"/>
       <c r="F41" s="100" t="n"/>
       <c r="G41" s="109" t="inlineStr">
         <is>
@@ -10165,7 +10347,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="100" t="n"/>
+      <c r="E42" s="113" t="n"/>
       <c r="F42" s="100" t="n"/>
       <c r="G42" s="109" t="inlineStr">
         <is>
@@ -10199,7 +10381,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E43" s="100" t="n"/>
+      <c r="E43" s="113" t="n"/>
       <c r="F43" s="100" t="n"/>
       <c r="G43" s="109" t="inlineStr">
         <is>
@@ -10233,7 +10415,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="100" t="n"/>
+      <c r="E44" s="113" t="n"/>
       <c r="F44" s="100" t="n"/>
       <c r="G44" s="109" t="inlineStr">
         <is>
@@ -10267,7 +10449,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="100" t="n"/>
+      <c r="E45" s="113" t="n"/>
       <c r="F45" s="100" t="n"/>
       <c r="G45" s="109" t="inlineStr">
         <is>
@@ -10339,7 +10521,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="100" t="n"/>
+      <c r="E47" s="113" t="n"/>
       <c r="F47" s="100" t="n"/>
       <c r="G47" s="109" t="inlineStr">
         <is>
@@ -10514,7 +10696,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="100" t="n"/>
+      <c r="E2" s="113" t="n"/>
       <c r="F2" s="100" t="n"/>
       <c r="G2" s="109" t="inlineStr">
         <is>
@@ -10548,7 +10730,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="100" t="n"/>
+      <c r="E3" s="113" t="n"/>
       <c r="F3" s="100" t="n"/>
       <c r="G3" s="109" t="inlineStr">
         <is>
@@ -10620,7 +10802,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="100" t="n"/>
+      <c r="E5" s="113" t="n"/>
       <c r="F5" s="100" t="n"/>
       <c r="G5" s="109" t="inlineStr">
         <is>
@@ -10654,7 +10836,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="100" t="n"/>
+      <c r="E6" s="113" t="n"/>
       <c r="F6" s="100" t="n"/>
       <c r="G6" s="109" t="inlineStr">
         <is>
@@ -10688,7 +10870,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="100" t="n"/>
+      <c r="E7" s="113" t="n"/>
       <c r="F7" s="100" t="n"/>
       <c r="G7" s="109" t="inlineStr">
         <is>
@@ -10722,7 +10904,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="100" t="n"/>
+      <c r="E8" s="113" t="n"/>
       <c r="F8" s="100" t="n"/>
       <c r="G8" s="109" t="inlineStr">
         <is>
@@ -10756,7 +10938,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="100" t="n"/>
+      <c r="E9" s="113" t="n"/>
       <c r="F9" s="100" t="n"/>
       <c r="G9" s="109" t="inlineStr">
         <is>
@@ -10790,7 +10972,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="100" t="n"/>
+      <c r="E10" s="113" t="n"/>
       <c r="F10" s="100" t="n"/>
       <c r="G10" s="109" t="inlineStr">
         <is>
@@ -10824,7 +11006,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="100" t="n"/>
+      <c r="E11" s="113" t="n"/>
       <c r="F11" s="100" t="n"/>
       <c r="G11" s="109" t="inlineStr">
         <is>
@@ -10858,7 +11040,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="100" t="n"/>
+      <c r="E12" s="113" t="n"/>
       <c r="F12" s="100" t="n"/>
       <c r="G12" s="109" t="inlineStr">
         <is>
@@ -10892,7 +11074,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="100" t="n"/>
+      <c r="E13" s="113" t="n"/>
       <c r="F13" s="100" t="n"/>
       <c r="G13" s="109" t="inlineStr">
         <is>
@@ -10926,7 +11108,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="100" t="n"/>
+      <c r="E14" s="113" t="n"/>
       <c r="F14" s="100" t="n"/>
       <c r="G14" s="109" t="inlineStr">
         <is>
@@ -10960,7 +11142,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="100" t="n"/>
+      <c r="E15" s="113" t="n"/>
       <c r="F15" s="100" t="n"/>
       <c r="G15" s="109" t="inlineStr">
         <is>
@@ -10994,7 +11176,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="100" t="n"/>
+      <c r="E16" s="113" t="n"/>
       <c r="F16" s="100" t="n"/>
       <c r="G16" s="109" t="inlineStr">
         <is>
@@ -11028,7 +11210,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="100" t="n"/>
+      <c r="E17" s="113" t="n"/>
       <c r="F17" s="100" t="n"/>
       <c r="G17" s="109" t="inlineStr">
         <is>
@@ -11062,7 +11244,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="100" t="n"/>
+      <c r="E18" s="113" t="n"/>
       <c r="F18" s="100" t="n"/>
       <c r="G18" s="109" t="inlineStr">
         <is>
@@ -11096,7 +11278,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="100" t="n"/>
+      <c r="E19" s="113" t="n"/>
       <c r="F19" s="100" t="n"/>
       <c r="G19" s="109" t="inlineStr">
         <is>
@@ -11130,7 +11312,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="100" t="n"/>
+      <c r="E20" s="113" t="n"/>
       <c r="F20" s="100" t="n"/>
       <c r="G20" s="109" t="inlineStr">
         <is>
@@ -11164,7 +11346,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="100" t="n"/>
+      <c r="E21" s="113" t="n"/>
       <c r="F21" s="100" t="n"/>
       <c r="G21" s="109" t="inlineStr">
         <is>
@@ -11236,7 +11418,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="100" t="n"/>
+      <c r="E23" s="113" t="n"/>
       <c r="F23" s="100" t="n"/>
       <c r="G23" s="109" t="inlineStr">
         <is>
@@ -11308,7 +11490,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="100" t="n"/>
+      <c r="E25" s="113" t="n"/>
       <c r="F25" s="100" t="n"/>
       <c r="G25" s="109" t="inlineStr">
         <is>
@@ -11342,7 +11524,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="100" t="n"/>
+      <c r="E26" s="113" t="n"/>
       <c r="F26" s="100" t="n"/>
       <c r="G26" s="109" t="inlineStr">
         <is>
@@ -11376,7 +11558,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="100" t="n"/>
+      <c r="E27" s="113" t="n"/>
       <c r="F27" s="100" t="n"/>
       <c r="G27" s="109" t="inlineStr">
         <is>
@@ -11410,7 +11592,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="100" t="n"/>
+      <c r="E28" s="113" t="n"/>
       <c r="F28" s="100" t="n"/>
       <c r="G28" s="109" t="inlineStr">
         <is>
@@ -11482,7 +11664,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="100" t="n"/>
+      <c r="E30" s="113" t="n"/>
       <c r="F30" s="100" t="n"/>
       <c r="G30" s="109" t="inlineStr">
         <is>
@@ -11516,7 +11698,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="100" t="n"/>
+      <c r="E31" s="113" t="n"/>
       <c r="F31" s="100" t="n"/>
       <c r="G31" s="109" t="inlineStr">
         <is>
@@ -11550,7 +11732,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="100" t="n"/>
+      <c r="E32" s="113" t="n"/>
       <c r="F32" s="100" t="n"/>
       <c r="G32" s="109" t="inlineStr">
         <is>
@@ -11584,7 +11766,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="100" t="n"/>
+      <c r="E33" s="113" t="n"/>
       <c r="F33" s="100" t="n"/>
       <c r="G33" s="109" t="inlineStr">
         <is>
@@ -11618,7 +11800,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="100" t="n"/>
+      <c r="E34" s="113" t="n"/>
       <c r="F34" s="100" t="n"/>
       <c r="G34" s="109" t="inlineStr">
         <is>
@@ -11652,7 +11834,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="100" t="n"/>
+      <c r="E35" s="113" t="n"/>
       <c r="F35" s="100" t="n"/>
       <c r="G35" s="109" t="inlineStr">
         <is>
@@ -11686,7 +11868,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="100" t="n"/>
+      <c r="E36" s="113" t="n"/>
       <c r="F36" s="100" t="n"/>
       <c r="G36" s="109" t="inlineStr">
         <is>
@@ -11720,7 +11902,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="100" t="n"/>
+      <c r="E37" s="113" t="n"/>
       <c r="F37" s="100" t="n"/>
       <c r="G37" s="109" t="inlineStr">
         <is>
@@ -11754,7 +11936,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="100" t="n"/>
+      <c r="E38" s="113" t="n"/>
       <c r="F38" s="100" t="n"/>
       <c r="G38" s="109" t="inlineStr">
         <is>
@@ -11788,7 +11970,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="100" t="n"/>
+      <c r="E39" s="113" t="n"/>
       <c r="F39" s="100" t="n"/>
       <c r="G39" s="109" t="inlineStr">
         <is>
@@ -11822,7 +12004,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="100" t="n"/>
+      <c r="E40" s="113" t="n"/>
       <c r="F40" s="100" t="n"/>
       <c r="G40" s="109" t="inlineStr">
         <is>
@@ -11856,7 +12038,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="100" t="n"/>
+      <c r="E41" s="113" t="n"/>
       <c r="F41" s="100" t="n"/>
       <c r="G41" s="109" t="inlineStr">
         <is>
@@ -11890,7 +12072,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="100" t="n"/>
+      <c r="E42" s="113" t="n"/>
       <c r="F42" s="100" t="n"/>
       <c r="G42" s="109" t="inlineStr">
         <is>
@@ -11924,7 +12106,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E43" s="100" t="n"/>
+      <c r="E43" s="113" t="n"/>
       <c r="F43" s="100" t="n"/>
       <c r="G43" s="109" t="inlineStr">
         <is>
@@ -11958,7 +12140,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="100" t="n"/>
+      <c r="E44" s="113" t="n"/>
       <c r="F44" s="100" t="n"/>
       <c r="G44" s="109" t="inlineStr">
         <is>
@@ -11992,7 +12174,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="100" t="n"/>
+      <c r="E45" s="113" t="n"/>
       <c r="F45" s="100" t="n"/>
       <c r="G45" s="109" t="inlineStr">
         <is>
@@ -12064,7 +12246,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="100" t="n"/>
+      <c r="E47" s="113" t="n"/>
       <c r="F47" s="100" t="n"/>
       <c r="G47" s="109" t="inlineStr">
         <is>
@@ -12239,7 +12421,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="100" t="n"/>
+      <c r="E2" s="113" t="n"/>
       <c r="F2" s="100" t="n"/>
       <c r="G2" s="109" t="inlineStr">
         <is>
@@ -12273,7 +12455,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="100" t="n"/>
+      <c r="E3" s="113" t="n"/>
       <c r="F3" s="100" t="n"/>
       <c r="G3" s="109" t="inlineStr">
         <is>
@@ -12345,7 +12527,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="100" t="n"/>
+      <c r="E5" s="113" t="n"/>
       <c r="F5" s="100" t="n"/>
       <c r="G5" s="109" t="inlineStr">
         <is>
@@ -12379,7 +12561,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="100" t="n"/>
+      <c r="E6" s="113" t="n"/>
       <c r="F6" s="100" t="n"/>
       <c r="G6" s="109" t="inlineStr">
         <is>
@@ -12413,7 +12595,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="100" t="n"/>
+      <c r="E7" s="113" t="n"/>
       <c r="F7" s="100" t="n"/>
       <c r="G7" s="109" t="inlineStr">
         <is>
@@ -12447,7 +12629,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="100" t="n"/>
+      <c r="E8" s="113" t="n"/>
       <c r="F8" s="100" t="n"/>
       <c r="G8" s="109" t="inlineStr">
         <is>
@@ -12481,7 +12663,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="100" t="n"/>
+      <c r="E9" s="113" t="n"/>
       <c r="F9" s="100" t="n"/>
       <c r="G9" s="109" t="inlineStr">
         <is>
@@ -12515,7 +12697,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="100" t="n"/>
+      <c r="E10" s="113" t="n"/>
       <c r="F10" s="100" t="n"/>
       <c r="G10" s="109" t="inlineStr">
         <is>
@@ -12549,7 +12731,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="100" t="n"/>
+      <c r="E11" s="113" t="n"/>
       <c r="F11" s="100" t="n"/>
       <c r="G11" s="109" t="inlineStr">
         <is>
@@ -12583,7 +12765,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="100" t="n"/>
+      <c r="E12" s="113" t="n"/>
       <c r="F12" s="100" t="n"/>
       <c r="G12" s="109" t="inlineStr">
         <is>
@@ -12617,7 +12799,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="100" t="n"/>
+      <c r="E13" s="113" t="n"/>
       <c r="F13" s="100" t="n"/>
       <c r="G13" s="109" t="inlineStr">
         <is>
@@ -12651,7 +12833,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="100" t="n"/>
+      <c r="E14" s="113" t="n"/>
       <c r="F14" s="100" t="n"/>
       <c r="G14" s="109" t="inlineStr">
         <is>
@@ -12685,7 +12867,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="100" t="n"/>
+      <c r="E15" s="113" t="n"/>
       <c r="F15" s="100" t="n"/>
       <c r="G15" s="109" t="inlineStr">
         <is>
@@ -12719,7 +12901,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="100" t="n"/>
+      <c r="E16" s="113" t="n"/>
       <c r="F16" s="100" t="n"/>
       <c r="G16" s="109" t="inlineStr">
         <is>
@@ -12753,7 +12935,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="100" t="n"/>
+      <c r="E17" s="113" t="n"/>
       <c r="F17" s="100" t="n"/>
       <c r="G17" s="109" t="inlineStr">
         <is>
@@ -12787,7 +12969,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="100" t="n"/>
+      <c r="E18" s="113" t="n"/>
       <c r="F18" s="100" t="n"/>
       <c r="G18" s="109" t="inlineStr">
         <is>
@@ -12821,7 +13003,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="100" t="n"/>
+      <c r="E19" s="113" t="n"/>
       <c r="F19" s="100" t="n"/>
       <c r="G19" s="109" t="inlineStr">
         <is>
@@ -12855,7 +13037,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="100" t="n"/>
+      <c r="E20" s="113" t="n"/>
       <c r="F20" s="100" t="n"/>
       <c r="G20" s="109" t="inlineStr">
         <is>
@@ -12889,7 +13071,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="100" t="n"/>
+      <c r="E21" s="113" t="n"/>
       <c r="F21" s="100" t="n"/>
       <c r="G21" s="109" t="inlineStr">
         <is>
@@ -12961,7 +13143,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="100" t="n"/>
+      <c r="E23" s="113" t="n"/>
       <c r="F23" s="100" t="n"/>
       <c r="G23" s="109" t="inlineStr">
         <is>
@@ -13033,7 +13215,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="100" t="n"/>
+      <c r="E25" s="113" t="n"/>
       <c r="F25" s="100" t="n"/>
       <c r="G25" s="109" t="inlineStr">
         <is>
@@ -13067,7 +13249,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="100" t="n"/>
+      <c r="E26" s="113" t="n"/>
       <c r="F26" s="100" t="n"/>
       <c r="G26" s="109" t="inlineStr">
         <is>
@@ -13101,7 +13283,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="100" t="n"/>
+      <c r="E27" s="113" t="n"/>
       <c r="F27" s="100" t="n"/>
       <c r="G27" s="109" t="inlineStr">
         <is>
@@ -13135,7 +13317,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="100" t="n"/>
+      <c r="E28" s="113" t="n"/>
       <c r="F28" s="100" t="n"/>
       <c r="G28" s="109" t="inlineStr">
         <is>
@@ -13207,7 +13389,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="100" t="n"/>
+      <c r="E30" s="113" t="n"/>
       <c r="F30" s="100" t="n"/>
       <c r="G30" s="109" t="inlineStr">
         <is>
@@ -13241,7 +13423,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="100" t="n"/>
+      <c r="E31" s="113" t="n"/>
       <c r="F31" s="100" t="n"/>
       <c r="G31" s="109" t="inlineStr">
         <is>
@@ -13275,7 +13457,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="100" t="n"/>
+      <c r="E32" s="113" t="n"/>
       <c r="F32" s="100" t="n"/>
       <c r="G32" s="109" t="inlineStr">
         <is>
@@ -13309,7 +13491,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="100" t="n"/>
+      <c r="E33" s="113" t="n"/>
       <c r="F33" s="100" t="n"/>
       <c r="G33" s="109" t="inlineStr">
         <is>
@@ -13343,7 +13525,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="100" t="n"/>
+      <c r="E34" s="113" t="n"/>
       <c r="F34" s="100" t="n"/>
       <c r="G34" s="109" t="inlineStr">
         <is>
@@ -13377,7 +13559,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="100" t="n"/>
+      <c r="E35" s="113" t="n"/>
       <c r="F35" s="100" t="n"/>
       <c r="G35" s="109" t="inlineStr">
         <is>
@@ -13411,7 +13593,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="100" t="n"/>
+      <c r="E36" s="113" t="n"/>
       <c r="F36" s="100" t="n"/>
       <c r="G36" s="109" t="inlineStr">
         <is>
@@ -13445,7 +13627,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="100" t="n"/>
+      <c r="E37" s="113" t="n"/>
       <c r="F37" s="100" t="n"/>
       <c r="G37" s="109" t="inlineStr">
         <is>
@@ -13479,7 +13661,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="100" t="n"/>
+      <c r="E38" s="113" t="n"/>
       <c r="F38" s="100" t="n"/>
       <c r="G38" s="109" t="inlineStr">
         <is>
@@ -13513,7 +13695,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="100" t="n"/>
+      <c r="E39" s="113" t="n"/>
       <c r="F39" s="100" t="n"/>
       <c r="G39" s="109" t="inlineStr">
         <is>
@@ -13547,7 +13729,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="100" t="n"/>
+      <c r="E40" s="113" t="n"/>
       <c r="F40" s="100" t="n"/>
       <c r="G40" s="109" t="inlineStr">
         <is>
@@ -13581,7 +13763,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="100" t="n"/>
+      <c r="E41" s="113" t="n"/>
       <c r="F41" s="100" t="n"/>
       <c r="G41" s="109" t="inlineStr">
         <is>
@@ -13615,7 +13797,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="100" t="n"/>
+      <c r="E42" s="113" t="n"/>
       <c r="F42" s="100" t="n"/>
       <c r="G42" s="109" t="inlineStr">
         <is>
@@ -13649,7 +13831,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E43" s="100" t="n"/>
+      <c r="E43" s="113" t="n"/>
       <c r="F43" s="100" t="n"/>
       <c r="G43" s="109" t="inlineStr">
         <is>
@@ -13683,7 +13865,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="100" t="n"/>
+      <c r="E44" s="113" t="n"/>
       <c r="F44" s="100" t="n"/>
       <c r="G44" s="109" t="inlineStr">
         <is>
@@ -13717,7 +13899,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="100" t="n"/>
+      <c r="E45" s="113" t="n"/>
       <c r="F45" s="100" t="n"/>
       <c r="G45" s="109" t="inlineStr">
         <is>
@@ -13789,7 +13971,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="100" t="n"/>
+      <c r="E47" s="113" t="n"/>
       <c r="F47" s="100" t="n"/>
       <c r="G47" s="109" t="inlineStr">
         <is>

--- a/outputs/expansao_ms_atualizado_form4.xlsx
+++ b/outputs/expansao_ms_atualizado_form4.xlsx
@@ -149,7 +149,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="46">
     <fill>
       <patternFill/>
     </fill>
@@ -290,14 +290,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF006400"/>
-        <bgColor rgb="FF006400"/>
+        <fgColor rgb="FF008000"/>
+        <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6666"/>
-        <bgColor rgb="FFFF6666"/>
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF66"/>
+        <bgColor rgb="FF66FF66"/>
       </patternFill>
     </fill>
     <fill>
@@ -314,8 +320,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFDEE00"/>
+        <bgColor rgb="FFFDEE00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FDEE00"/>
         <bgColor rgb="00FDEE00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00BFFF"/>
+        <bgColor rgb="FF00BFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -326,8 +344,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFA500"/>
+        <bgColor rgb="FFFFA500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FFA500"/>
         <bgColor rgb="00FFA500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -344,6 +374,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF006400"/>
+        <bgColor rgb="FF006400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6666"/>
+        <bgColor rgb="FFFF6666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FF6666"/>
         <bgColor rgb="00FF6666"/>
       </patternFill>
@@ -356,8 +398,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA020F0"/>
+        <bgColor rgb="FFA020F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00A020F0"/>
         <bgColor rgb="00A020F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6400"/>
+        <bgColor rgb="FFFF6400"/>
       </patternFill>
     </fill>
     <fill>
@@ -601,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -883,49 +937,46 @@
     <xf numFmtId="0" fontId="17" fillId="23" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="30" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="36" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="43" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="45" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1542,7 +1593,7 @@
     <col width="32" customWidth="1" min="1" max="1"/>
     <col width="8.7109375" customWidth="1" min="2" max="2"/>
     <col width="9.28515625" customWidth="1" min="6" max="6"/>
-    <col width="10.85546875" customWidth="1" min="9" max="9"/>
+    <col width="9.140625" customWidth="1" min="9" max="9"/>
     <col width="4.42578125" customWidth="1" min="17" max="17"/>
     <col width="17.5703125" customWidth="1" min="18" max="18"/>
     <col width="12.85546875" customWidth="1" min="19" max="19"/>
@@ -3083,8 +3134,8 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
     <mergeCell ref="R21:T21"/>
-    <mergeCell ref="G23:H23"/>
     <mergeCell ref="K12:P12"/>
     <mergeCell ref="C19:I19"/>
     <mergeCell ref="K21:L21"/>
@@ -3100,15 +3151,15 @@
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="R12:S12"/>
-    <mergeCell ref="C11:I11"/>
     <mergeCell ref="M25:N25"/>
-    <mergeCell ref="A12:B25"/>
     <mergeCell ref="M21:N21"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="O25:P25"/>
-    <mergeCell ref="G24:H24"/>
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="K19:P19"/>
-    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A12:B25"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K11:P11"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="M24:N24"/>
@@ -3123,7 +3174,7 @@
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="C11:I11"/>
     <mergeCell ref="E21:F21"/>
   </mergeCells>
   <conditionalFormatting sqref="T12">
@@ -4212,7 +4263,7 @@
       </c>
       <c r="B27" s="100" t="inlineStr">
         <is>
-          <t>Santa Cruz do Monte Castelo</t>
+          <t>Santa Cruz de Monte Castelo</t>
         </is>
       </c>
       <c r="C27" s="100" t="n">
@@ -5161,7 +5212,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="108" t="inlineStr">
+      <c r="E2" s="110" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -5199,7 +5250,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="108" t="inlineStr">
+      <c r="E3" s="110" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -5277,10 +5328,14 @@
       </c>
       <c r="E5" s="108" t="inlineStr">
         <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
-      <c r="F5" s="100" t="n"/>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F5" s="100" t="inlineStr">
+        <is>
+          <t>06/10/2025</t>
+        </is>
+      </c>
       <c r="G5" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5313,7 +5368,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="108" t="inlineStr">
+      <c r="E6" s="110" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -5351,7 +5406,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="108" t="inlineStr">
+      <c r="E7" s="110" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -5389,7 +5444,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="110" t="inlineStr">
+      <c r="E8" s="108" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -5431,7 +5486,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="108" t="inlineStr">
+      <c r="E9" s="110" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -5471,10 +5526,14 @@
       </c>
       <c r="E10" s="108" t="inlineStr">
         <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
-      <c r="F10" s="100" t="n"/>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F10" s="100" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
       <c r="G10" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5507,7 +5566,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="110" t="inlineStr">
+      <c r="E11" s="108" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -5549,7 +5608,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="108" t="inlineStr">
+      <c r="E12" s="110" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -5587,7 +5646,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="108" t="inlineStr">
+      <c r="E13" s="110" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -5625,7 +5684,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="108" t="inlineStr">
+      <c r="E14" s="110" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -5663,7 +5722,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="108" t="inlineStr">
+      <c r="E15" s="110" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -5701,7 +5760,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="108" t="inlineStr">
+      <c r="E16" s="110" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -5739,7 +5798,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="108" t="inlineStr">
+      <c r="E17" s="110" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -5777,7 +5836,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="108" t="inlineStr">
+      <c r="E18" s="110" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -5815,7 +5874,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="110" t="inlineStr">
+      <c r="E19" s="108" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -5857,7 +5916,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="108" t="inlineStr">
+      <c r="E20" s="110" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -5895,7 +5954,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="108" t="inlineStr">
+      <c r="E21" s="110" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -5971,7 +6030,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="108" t="inlineStr">
+      <c r="E23" s="110" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -6047,7 +6106,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="108" t="inlineStr">
+      <c r="E25" s="110" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -6085,7 +6144,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="108" t="inlineStr">
+      <c r="E26" s="110" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -6113,7 +6172,7 @@
       </c>
       <c r="B27" s="100" t="inlineStr">
         <is>
-          <t>Santa Cruz do Monte Castelo</t>
+          <t>Santa Cruz de Monte Castelo</t>
         </is>
       </c>
       <c r="C27" s="100" t="n">
@@ -6125,10 +6184,14 @@
       </c>
       <c r="E27" s="108" t="inlineStr">
         <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
-      <c r="F27" s="100" t="n"/>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F27" s="100" t="inlineStr">
+        <is>
+          <t>01/10/2025</t>
+        </is>
+      </c>
       <c r="G27" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6161,7 +6224,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="110" t="inlineStr">
+      <c r="E28" s="108" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -6241,7 +6304,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="108" t="inlineStr">
+      <c r="E30" s="110" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -6279,7 +6342,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="108" t="inlineStr">
+      <c r="E31" s="110" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -6317,7 +6380,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="108" t="inlineStr">
+      <c r="E32" s="110" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -6355,19 +6418,25 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="108" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
-      <c r="F33" s="100" t="n"/>
-      <c r="G33" s="109" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E33" s="111" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
+        </is>
+      </c>
+      <c r="F33" s="100" t="inlineStr">
+        <is>
+          <t>30/09/2025, 30/09/2025</t>
+        </is>
+      </c>
+      <c r="G33" s="102" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H33" s="100" t="n"/>
-      <c r="I33" s="100" t="n"/>
+      <c r="I33" s="100" t="n">
+        <v>394</v>
+      </c>
       <c r="J33" s="100" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6393,7 +6462,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="110" t="inlineStr">
+      <c r="E34" s="108" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -6437,10 +6506,14 @@
       </c>
       <c r="E35" s="108" t="inlineStr">
         <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
-      <c r="F35" s="100" t="n"/>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F35" s="100" t="inlineStr">
+        <is>
+          <t>01/10/2025</t>
+        </is>
+      </c>
       <c r="G35" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6473,7 +6546,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="108" t="inlineStr">
+      <c r="E36" s="110" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -6511,7 +6584,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="108" t="inlineStr">
+      <c r="E37" s="110" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -6549,7 +6622,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="108" t="inlineStr">
+      <c r="E38" s="110" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -6587,7 +6660,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="110" t="inlineStr">
+      <c r="E39" s="108" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -6629,7 +6702,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="108" t="inlineStr">
+      <c r="E40" s="110" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -6667,7 +6740,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="108" t="inlineStr">
+      <c r="E41" s="110" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -6705,7 +6778,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="108" t="inlineStr">
+      <c r="E42" s="110" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -6745,10 +6818,14 @@
       </c>
       <c r="E43" s="108" t="inlineStr">
         <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
-      <c r="F43" s="100" t="n"/>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F43" s="100" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
       <c r="G43" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6823,7 +6900,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="108" t="inlineStr">
+      <c r="E45" s="110" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -6899,7 +6976,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="110" t="inlineStr">
+      <c r="E47" s="108" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7196,12 +7273,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F5" s="100" t="n"/>
+      <c r="E5" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F5" s="100" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
       <c r="G5" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7234,12 +7315,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F6" s="100" t="n"/>
+      <c r="E6" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F6" s="100" t="inlineStr">
+        <is>
+          <t>01/10/2025</t>
+        </is>
+      </c>
       <c r="G6" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7804,12 +7889,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F21" s="100" t="n"/>
+      <c r="E21" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F21" s="100" t="inlineStr">
+        <is>
+          <t>03/10/2025</t>
+        </is>
+      </c>
       <c r="G21" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8022,7 +8111,7 @@
       </c>
       <c r="B27" s="100" t="inlineStr">
         <is>
-          <t>Santa Cruz do Monte Castelo</t>
+          <t>Santa Cruz de Monte Castelo</t>
         </is>
       </c>
       <c r="C27" s="100" t="n">
@@ -8564,12 +8653,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F41" s="100" t="n"/>
+      <c r="E41" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F41" s="100" t="inlineStr">
+        <is>
+          <t>07/10/2025</t>
+        </is>
+      </c>
       <c r="G41" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8971,7 +9064,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="113" t="n"/>
+      <c r="E2" s="100" t="n"/>
       <c r="F2" s="100" t="n"/>
       <c r="G2" s="109" t="inlineStr">
         <is>
@@ -9005,7 +9098,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="113" t="n"/>
+      <c r="E3" s="100" t="n"/>
       <c r="F3" s="100" t="n"/>
       <c r="G3" s="109" t="inlineStr">
         <is>
@@ -9077,7 +9170,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="113" t="n"/>
+      <c r="E5" s="100" t="n"/>
       <c r="F5" s="100" t="n"/>
       <c r="G5" s="109" t="inlineStr">
         <is>
@@ -9111,7 +9204,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="113" t="n"/>
+      <c r="E6" s="100" t="n"/>
       <c r="F6" s="100" t="n"/>
       <c r="G6" s="109" t="inlineStr">
         <is>
@@ -9145,7 +9238,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="113" t="n"/>
+      <c r="E7" s="100" t="n"/>
       <c r="F7" s="100" t="n"/>
       <c r="G7" s="109" t="inlineStr">
         <is>
@@ -9179,7 +9272,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="113" t="n"/>
+      <c r="E8" s="100" t="n"/>
       <c r="F8" s="100" t="n"/>
       <c r="G8" s="109" t="inlineStr">
         <is>
@@ -9213,7 +9306,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="113" t="n"/>
+      <c r="E9" s="100" t="n"/>
       <c r="F9" s="100" t="n"/>
       <c r="G9" s="109" t="inlineStr">
         <is>
@@ -9247,7 +9340,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="113" t="n"/>
+      <c r="E10" s="100" t="n"/>
       <c r="F10" s="100" t="n"/>
       <c r="G10" s="109" t="inlineStr">
         <is>
@@ -9281,7 +9374,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="113" t="n"/>
+      <c r="E11" s="100" t="n"/>
       <c r="F11" s="100" t="n"/>
       <c r="G11" s="109" t="inlineStr">
         <is>
@@ -9315,7 +9408,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="113" t="n"/>
+      <c r="E12" s="100" t="n"/>
       <c r="F12" s="100" t="n"/>
       <c r="G12" s="109" t="inlineStr">
         <is>
@@ -9349,7 +9442,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="113" t="n"/>
+      <c r="E13" s="100" t="n"/>
       <c r="F13" s="100" t="n"/>
       <c r="G13" s="109" t="inlineStr">
         <is>
@@ -9383,7 +9476,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="113" t="n"/>
+      <c r="E14" s="100" t="n"/>
       <c r="F14" s="100" t="n"/>
       <c r="G14" s="109" t="inlineStr">
         <is>
@@ -9417,7 +9510,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="113" t="n"/>
+      <c r="E15" s="100" t="n"/>
       <c r="F15" s="100" t="n"/>
       <c r="G15" s="109" t="inlineStr">
         <is>
@@ -9451,7 +9544,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="113" t="n"/>
+      <c r="E16" s="100" t="n"/>
       <c r="F16" s="100" t="n"/>
       <c r="G16" s="109" t="inlineStr">
         <is>
@@ -9485,7 +9578,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="113" t="n"/>
+      <c r="E17" s="100" t="n"/>
       <c r="F17" s="100" t="n"/>
       <c r="G17" s="109" t="inlineStr">
         <is>
@@ -9519,7 +9612,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="113" t="n"/>
+      <c r="E18" s="100" t="n"/>
       <c r="F18" s="100" t="n"/>
       <c r="G18" s="109" t="inlineStr">
         <is>
@@ -9553,7 +9646,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="113" t="n"/>
+      <c r="E19" s="100" t="n"/>
       <c r="F19" s="100" t="n"/>
       <c r="G19" s="109" t="inlineStr">
         <is>
@@ -9587,7 +9680,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="113" t="n"/>
+      <c r="E20" s="100" t="n"/>
       <c r="F20" s="100" t="n"/>
       <c r="G20" s="109" t="inlineStr">
         <is>
@@ -9621,7 +9714,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="113" t="n"/>
+      <c r="E21" s="100" t="n"/>
       <c r="F21" s="100" t="n"/>
       <c r="G21" s="109" t="inlineStr">
         <is>
@@ -9693,7 +9786,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="113" t="n"/>
+      <c r="E23" s="100" t="n"/>
       <c r="F23" s="100" t="n"/>
       <c r="G23" s="109" t="inlineStr">
         <is>
@@ -9765,7 +9858,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="113" t="n"/>
+      <c r="E25" s="100" t="n"/>
       <c r="F25" s="100" t="n"/>
       <c r="G25" s="109" t="inlineStr">
         <is>
@@ -9799,7 +9892,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="113" t="n"/>
+      <c r="E26" s="100" t="n"/>
       <c r="F26" s="100" t="n"/>
       <c r="G26" s="109" t="inlineStr">
         <is>
@@ -9823,7 +9916,7 @@
       </c>
       <c r="B27" s="100" t="inlineStr">
         <is>
-          <t>Santa Cruz do Monte Castelo</t>
+          <t>Santa Cruz de Monte Castelo</t>
         </is>
       </c>
       <c r="C27" s="100" t="n">
@@ -9833,7 +9926,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="113" t="n"/>
+      <c r="E27" s="100" t="n"/>
       <c r="F27" s="100" t="n"/>
       <c r="G27" s="109" t="inlineStr">
         <is>
@@ -9867,7 +9960,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="113" t="n"/>
+      <c r="E28" s="100" t="n"/>
       <c r="F28" s="100" t="n"/>
       <c r="G28" s="109" t="inlineStr">
         <is>
@@ -9939,7 +10032,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="113" t="n"/>
+      <c r="E30" s="100" t="n"/>
       <c r="F30" s="100" t="n"/>
       <c r="G30" s="109" t="inlineStr">
         <is>
@@ -9973,7 +10066,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="113" t="n"/>
+      <c r="E31" s="100" t="n"/>
       <c r="F31" s="100" t="n"/>
       <c r="G31" s="109" t="inlineStr">
         <is>
@@ -10007,7 +10100,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="113" t="n"/>
+      <c r="E32" s="100" t="n"/>
       <c r="F32" s="100" t="n"/>
       <c r="G32" s="109" t="inlineStr">
         <is>
@@ -10041,7 +10134,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="113" t="n"/>
+      <c r="E33" s="100" t="n"/>
       <c r="F33" s="100" t="n"/>
       <c r="G33" s="109" t="inlineStr">
         <is>
@@ -10075,7 +10168,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="113" t="n"/>
+      <c r="E34" s="100" t="n"/>
       <c r="F34" s="100" t="n"/>
       <c r="G34" s="109" t="inlineStr">
         <is>
@@ -10109,7 +10202,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="113" t="n"/>
+      <c r="E35" s="100" t="n"/>
       <c r="F35" s="100" t="n"/>
       <c r="G35" s="109" t="inlineStr">
         <is>
@@ -10143,7 +10236,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="113" t="n"/>
+      <c r="E36" s="100" t="n"/>
       <c r="F36" s="100" t="n"/>
       <c r="G36" s="109" t="inlineStr">
         <is>
@@ -10177,7 +10270,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="113" t="n"/>
+      <c r="E37" s="100" t="n"/>
       <c r="F37" s="100" t="n"/>
       <c r="G37" s="109" t="inlineStr">
         <is>
@@ -10211,7 +10304,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="113" t="n"/>
+      <c r="E38" s="100" t="n"/>
       <c r="F38" s="100" t="n"/>
       <c r="G38" s="109" t="inlineStr">
         <is>
@@ -10245,7 +10338,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="113" t="n"/>
+      <c r="E39" s="100" t="n"/>
       <c r="F39" s="100" t="n"/>
       <c r="G39" s="109" t="inlineStr">
         <is>
@@ -10279,7 +10372,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="113" t="n"/>
+      <c r="E40" s="100" t="n"/>
       <c r="F40" s="100" t="n"/>
       <c r="G40" s="109" t="inlineStr">
         <is>
@@ -10313,7 +10406,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="113" t="n"/>
+      <c r="E41" s="100" t="n"/>
       <c r="F41" s="100" t="n"/>
       <c r="G41" s="109" t="inlineStr">
         <is>
@@ -10347,7 +10440,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="113" t="n"/>
+      <c r="E42" s="100" t="n"/>
       <c r="F42" s="100" t="n"/>
       <c r="G42" s="109" t="inlineStr">
         <is>
@@ -10381,7 +10474,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E43" s="113" t="n"/>
+      <c r="E43" s="100" t="n"/>
       <c r="F43" s="100" t="n"/>
       <c r="G43" s="109" t="inlineStr">
         <is>
@@ -10415,7 +10508,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="113" t="n"/>
+      <c r="E44" s="100" t="n"/>
       <c r="F44" s="100" t="n"/>
       <c r="G44" s="109" t="inlineStr">
         <is>
@@ -10449,7 +10542,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="113" t="n"/>
+      <c r="E45" s="100" t="n"/>
       <c r="F45" s="100" t="n"/>
       <c r="G45" s="109" t="inlineStr">
         <is>
@@ -10521,7 +10614,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="113" t="n"/>
+      <c r="E47" s="100" t="n"/>
       <c r="F47" s="100" t="n"/>
       <c r="G47" s="109" t="inlineStr">
         <is>
@@ -10696,7 +10789,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="113" t="n"/>
+      <c r="E2" s="100" t="n"/>
       <c r="F2" s="100" t="n"/>
       <c r="G2" s="109" t="inlineStr">
         <is>
@@ -10730,7 +10823,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="113" t="n"/>
+      <c r="E3" s="100" t="n"/>
       <c r="F3" s="100" t="n"/>
       <c r="G3" s="109" t="inlineStr">
         <is>
@@ -10802,7 +10895,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="113" t="n"/>
+      <c r="E5" s="100" t="n"/>
       <c r="F5" s="100" t="n"/>
       <c r="G5" s="109" t="inlineStr">
         <is>
@@ -10836,7 +10929,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="113" t="n"/>
+      <c r="E6" s="100" t="n"/>
       <c r="F6" s="100" t="n"/>
       <c r="G6" s="109" t="inlineStr">
         <is>
@@ -10870,7 +10963,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="113" t="n"/>
+      <c r="E7" s="100" t="n"/>
       <c r="F7" s="100" t="n"/>
       <c r="G7" s="109" t="inlineStr">
         <is>
@@ -10904,7 +10997,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="113" t="n"/>
+      <c r="E8" s="100" t="n"/>
       <c r="F8" s="100" t="n"/>
       <c r="G8" s="109" t="inlineStr">
         <is>
@@ -10938,7 +11031,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="113" t="n"/>
+      <c r="E9" s="100" t="n"/>
       <c r="F9" s="100" t="n"/>
       <c r="G9" s="109" t="inlineStr">
         <is>
@@ -10972,7 +11065,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="113" t="n"/>
+      <c r="E10" s="100" t="n"/>
       <c r="F10" s="100" t="n"/>
       <c r="G10" s="109" t="inlineStr">
         <is>
@@ -11006,7 +11099,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="113" t="n"/>
+      <c r="E11" s="100" t="n"/>
       <c r="F11" s="100" t="n"/>
       <c r="G11" s="109" t="inlineStr">
         <is>
@@ -11040,7 +11133,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="113" t="n"/>
+      <c r="E12" s="100" t="n"/>
       <c r="F12" s="100" t="n"/>
       <c r="G12" s="109" t="inlineStr">
         <is>
@@ -11074,7 +11167,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="113" t="n"/>
+      <c r="E13" s="100" t="n"/>
       <c r="F13" s="100" t="n"/>
       <c r="G13" s="109" t="inlineStr">
         <is>
@@ -11108,7 +11201,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="113" t="n"/>
+      <c r="E14" s="100" t="n"/>
       <c r="F14" s="100" t="n"/>
       <c r="G14" s="109" t="inlineStr">
         <is>
@@ -11142,7 +11235,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="113" t="n"/>
+      <c r="E15" s="100" t="n"/>
       <c r="F15" s="100" t="n"/>
       <c r="G15" s="109" t="inlineStr">
         <is>
@@ -11176,7 +11269,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="113" t="n"/>
+      <c r="E16" s="100" t="n"/>
       <c r="F16" s="100" t="n"/>
       <c r="G16" s="109" t="inlineStr">
         <is>
@@ -11210,7 +11303,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="113" t="n"/>
+      <c r="E17" s="100" t="n"/>
       <c r="F17" s="100" t="n"/>
       <c r="G17" s="109" t="inlineStr">
         <is>
@@ -11244,7 +11337,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="113" t="n"/>
+      <c r="E18" s="100" t="n"/>
       <c r="F18" s="100" t="n"/>
       <c r="G18" s="109" t="inlineStr">
         <is>
@@ -11278,7 +11371,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="113" t="n"/>
+      <c r="E19" s="100" t="n"/>
       <c r="F19" s="100" t="n"/>
       <c r="G19" s="109" t="inlineStr">
         <is>
@@ -11312,7 +11405,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="113" t="n"/>
+      <c r="E20" s="100" t="n"/>
       <c r="F20" s="100" t="n"/>
       <c r="G20" s="109" t="inlineStr">
         <is>
@@ -11346,7 +11439,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="113" t="n"/>
+      <c r="E21" s="100" t="n"/>
       <c r="F21" s="100" t="n"/>
       <c r="G21" s="109" t="inlineStr">
         <is>
@@ -11418,7 +11511,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="113" t="n"/>
+      <c r="E23" s="100" t="n"/>
       <c r="F23" s="100" t="n"/>
       <c r="G23" s="109" t="inlineStr">
         <is>
@@ -11490,7 +11583,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="113" t="n"/>
+      <c r="E25" s="100" t="n"/>
       <c r="F25" s="100" t="n"/>
       <c r="G25" s="109" t="inlineStr">
         <is>
@@ -11524,7 +11617,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="113" t="n"/>
+      <c r="E26" s="100" t="n"/>
       <c r="F26" s="100" t="n"/>
       <c r="G26" s="109" t="inlineStr">
         <is>
@@ -11548,7 +11641,7 @@
       </c>
       <c r="B27" s="100" t="inlineStr">
         <is>
-          <t>Santa Cruz do Monte Castelo</t>
+          <t>Santa Cruz de Monte Castelo</t>
         </is>
       </c>
       <c r="C27" s="100" t="n">
@@ -11558,7 +11651,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="113" t="n"/>
+      <c r="E27" s="100" t="n"/>
       <c r="F27" s="100" t="n"/>
       <c r="G27" s="109" t="inlineStr">
         <is>
@@ -11592,7 +11685,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="113" t="n"/>
+      <c r="E28" s="100" t="n"/>
       <c r="F28" s="100" t="n"/>
       <c r="G28" s="109" t="inlineStr">
         <is>
@@ -11664,7 +11757,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="113" t="n"/>
+      <c r="E30" s="100" t="n"/>
       <c r="F30" s="100" t="n"/>
       <c r="G30" s="109" t="inlineStr">
         <is>
@@ -11698,7 +11791,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="113" t="n"/>
+      <c r="E31" s="100" t="n"/>
       <c r="F31" s="100" t="n"/>
       <c r="G31" s="109" t="inlineStr">
         <is>
@@ -11732,7 +11825,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="113" t="n"/>
+      <c r="E32" s="100" t="n"/>
       <c r="F32" s="100" t="n"/>
       <c r="G32" s="109" t="inlineStr">
         <is>
@@ -11766,7 +11859,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="113" t="n"/>
+      <c r="E33" s="100" t="n"/>
       <c r="F33" s="100" t="n"/>
       <c r="G33" s="109" t="inlineStr">
         <is>
@@ -11800,7 +11893,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="113" t="n"/>
+      <c r="E34" s="100" t="n"/>
       <c r="F34" s="100" t="n"/>
       <c r="G34" s="109" t="inlineStr">
         <is>
@@ -11834,7 +11927,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="113" t="n"/>
+      <c r="E35" s="100" t="n"/>
       <c r="F35" s="100" t="n"/>
       <c r="G35" s="109" t="inlineStr">
         <is>
@@ -11868,7 +11961,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="113" t="n"/>
+      <c r="E36" s="100" t="n"/>
       <c r="F36" s="100" t="n"/>
       <c r="G36" s="109" t="inlineStr">
         <is>
@@ -11902,7 +11995,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="113" t="n"/>
+      <c r="E37" s="100" t="n"/>
       <c r="F37" s="100" t="n"/>
       <c r="G37" s="109" t="inlineStr">
         <is>
@@ -11936,7 +12029,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="113" t="n"/>
+      <c r="E38" s="100" t="n"/>
       <c r="F38" s="100" t="n"/>
       <c r="G38" s="109" t="inlineStr">
         <is>
@@ -11970,7 +12063,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="113" t="n"/>
+      <c r="E39" s="100" t="n"/>
       <c r="F39" s="100" t="n"/>
       <c r="G39" s="109" t="inlineStr">
         <is>
@@ -12004,7 +12097,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="113" t="n"/>
+      <c r="E40" s="100" t="n"/>
       <c r="F40" s="100" t="n"/>
       <c r="G40" s="109" t="inlineStr">
         <is>
@@ -12038,7 +12131,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="113" t="n"/>
+      <c r="E41" s="100" t="n"/>
       <c r="F41" s="100" t="n"/>
       <c r="G41" s="109" t="inlineStr">
         <is>
@@ -12072,7 +12165,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="113" t="n"/>
+      <c r="E42" s="100" t="n"/>
       <c r="F42" s="100" t="n"/>
       <c r="G42" s="109" t="inlineStr">
         <is>
@@ -12106,7 +12199,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E43" s="113" t="n"/>
+      <c r="E43" s="100" t="n"/>
       <c r="F43" s="100" t="n"/>
       <c r="G43" s="109" t="inlineStr">
         <is>
@@ -12140,7 +12233,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="113" t="n"/>
+      <c r="E44" s="100" t="n"/>
       <c r="F44" s="100" t="n"/>
       <c r="G44" s="109" t="inlineStr">
         <is>
@@ -12174,7 +12267,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="113" t="n"/>
+      <c r="E45" s="100" t="n"/>
       <c r="F45" s="100" t="n"/>
       <c r="G45" s="109" t="inlineStr">
         <is>
@@ -12246,7 +12339,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="113" t="n"/>
+      <c r="E47" s="100" t="n"/>
       <c r="F47" s="100" t="n"/>
       <c r="G47" s="109" t="inlineStr">
         <is>
@@ -12421,7 +12514,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="113" t="n"/>
+      <c r="E2" s="100" t="n"/>
       <c r="F2" s="100" t="n"/>
       <c r="G2" s="109" t="inlineStr">
         <is>
@@ -12455,7 +12548,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="113" t="n"/>
+      <c r="E3" s="100" t="n"/>
       <c r="F3" s="100" t="n"/>
       <c r="G3" s="109" t="inlineStr">
         <is>
@@ -12527,7 +12620,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="113" t="n"/>
+      <c r="E5" s="100" t="n"/>
       <c r="F5" s="100" t="n"/>
       <c r="G5" s="109" t="inlineStr">
         <is>
@@ -12561,7 +12654,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="113" t="n"/>
+      <c r="E6" s="100" t="n"/>
       <c r="F6" s="100" t="n"/>
       <c r="G6" s="109" t="inlineStr">
         <is>
@@ -12595,7 +12688,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="113" t="n"/>
+      <c r="E7" s="100" t="n"/>
       <c r="F7" s="100" t="n"/>
       <c r="G7" s="109" t="inlineStr">
         <is>
@@ -12629,7 +12722,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="113" t="n"/>
+      <c r="E8" s="100" t="n"/>
       <c r="F8" s="100" t="n"/>
       <c r="G8" s="109" t="inlineStr">
         <is>
@@ -12663,7 +12756,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="113" t="n"/>
+      <c r="E9" s="100" t="n"/>
       <c r="F9" s="100" t="n"/>
       <c r="G9" s="109" t="inlineStr">
         <is>
@@ -12697,7 +12790,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="113" t="n"/>
+      <c r="E10" s="100" t="n"/>
       <c r="F10" s="100" t="n"/>
       <c r="G10" s="109" t="inlineStr">
         <is>
@@ -12731,7 +12824,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="113" t="n"/>
+      <c r="E11" s="100" t="n"/>
       <c r="F11" s="100" t="n"/>
       <c r="G11" s="109" t="inlineStr">
         <is>
@@ -12765,7 +12858,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="113" t="n"/>
+      <c r="E12" s="100" t="n"/>
       <c r="F12" s="100" t="n"/>
       <c r="G12" s="109" t="inlineStr">
         <is>
@@ -12799,7 +12892,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="113" t="n"/>
+      <c r="E13" s="100" t="n"/>
       <c r="F13" s="100" t="n"/>
       <c r="G13" s="109" t="inlineStr">
         <is>
@@ -12833,7 +12926,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="113" t="n"/>
+      <c r="E14" s="100" t="n"/>
       <c r="F14" s="100" t="n"/>
       <c r="G14" s="109" t="inlineStr">
         <is>
@@ -12867,7 +12960,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="113" t="n"/>
+      <c r="E15" s="100" t="n"/>
       <c r="F15" s="100" t="n"/>
       <c r="G15" s="109" t="inlineStr">
         <is>
@@ -12901,7 +12994,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="113" t="n"/>
+      <c r="E16" s="100" t="n"/>
       <c r="F16" s="100" t="n"/>
       <c r="G16" s="109" t="inlineStr">
         <is>
@@ -12935,7 +13028,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="113" t="n"/>
+      <c r="E17" s="100" t="n"/>
       <c r="F17" s="100" t="n"/>
       <c r="G17" s="109" t="inlineStr">
         <is>
@@ -12969,7 +13062,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="113" t="n"/>
+      <c r="E18" s="100" t="n"/>
       <c r="F18" s="100" t="n"/>
       <c r="G18" s="109" t="inlineStr">
         <is>
@@ -13003,7 +13096,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="113" t="n"/>
+      <c r="E19" s="100" t="n"/>
       <c r="F19" s="100" t="n"/>
       <c r="G19" s="109" t="inlineStr">
         <is>
@@ -13037,7 +13130,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="113" t="n"/>
+      <c r="E20" s="100" t="n"/>
       <c r="F20" s="100" t="n"/>
       <c r="G20" s="109" t="inlineStr">
         <is>
@@ -13071,7 +13164,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="113" t="n"/>
+      <c r="E21" s="100" t="n"/>
       <c r="F21" s="100" t="n"/>
       <c r="G21" s="109" t="inlineStr">
         <is>
@@ -13143,7 +13236,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="113" t="n"/>
+      <c r="E23" s="100" t="n"/>
       <c r="F23" s="100" t="n"/>
       <c r="G23" s="109" t="inlineStr">
         <is>
@@ -13215,7 +13308,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="113" t="n"/>
+      <c r="E25" s="100" t="n"/>
       <c r="F25" s="100" t="n"/>
       <c r="G25" s="109" t="inlineStr">
         <is>
@@ -13249,7 +13342,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="113" t="n"/>
+      <c r="E26" s="100" t="n"/>
       <c r="F26" s="100" t="n"/>
       <c r="G26" s="109" t="inlineStr">
         <is>
@@ -13273,7 +13366,7 @@
       </c>
       <c r="B27" s="100" t="inlineStr">
         <is>
-          <t>Santa Cruz do Monte Castelo</t>
+          <t>Santa Cruz de Monte Castelo</t>
         </is>
       </c>
       <c r="C27" s="100" t="n">
@@ -13283,7 +13376,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="113" t="n"/>
+      <c r="E27" s="100" t="n"/>
       <c r="F27" s="100" t="n"/>
       <c r="G27" s="109" t="inlineStr">
         <is>
@@ -13317,7 +13410,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="113" t="n"/>
+      <c r="E28" s="100" t="n"/>
       <c r="F28" s="100" t="n"/>
       <c r="G28" s="109" t="inlineStr">
         <is>
@@ -13389,7 +13482,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="113" t="n"/>
+      <c r="E30" s="100" t="n"/>
       <c r="F30" s="100" t="n"/>
       <c r="G30" s="109" t="inlineStr">
         <is>
@@ -13423,7 +13516,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="113" t="n"/>
+      <c r="E31" s="100" t="n"/>
       <c r="F31" s="100" t="n"/>
       <c r="G31" s="109" t="inlineStr">
         <is>
@@ -13457,7 +13550,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="113" t="n"/>
+      <c r="E32" s="100" t="n"/>
       <c r="F32" s="100" t="n"/>
       <c r="G32" s="109" t="inlineStr">
         <is>
@@ -13491,7 +13584,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="113" t="n"/>
+      <c r="E33" s="100" t="n"/>
       <c r="F33" s="100" t="n"/>
       <c r="G33" s="109" t="inlineStr">
         <is>
@@ -13525,7 +13618,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="113" t="n"/>
+      <c r="E34" s="100" t="n"/>
       <c r="F34" s="100" t="n"/>
       <c r="G34" s="109" t="inlineStr">
         <is>
@@ -13559,7 +13652,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="113" t="n"/>
+      <c r="E35" s="100" t="n"/>
       <c r="F35" s="100" t="n"/>
       <c r="G35" s="109" t="inlineStr">
         <is>
@@ -13593,7 +13686,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="113" t="n"/>
+      <c r="E36" s="100" t="n"/>
       <c r="F36" s="100" t="n"/>
       <c r="G36" s="109" t="inlineStr">
         <is>
@@ -13627,7 +13720,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="113" t="n"/>
+      <c r="E37" s="100" t="n"/>
       <c r="F37" s="100" t="n"/>
       <c r="G37" s="109" t="inlineStr">
         <is>
@@ -13661,7 +13754,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="113" t="n"/>
+      <c r="E38" s="100" t="n"/>
       <c r="F38" s="100" t="n"/>
       <c r="G38" s="109" t="inlineStr">
         <is>
@@ -13695,7 +13788,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="113" t="n"/>
+      <c r="E39" s="100" t="n"/>
       <c r="F39" s="100" t="n"/>
       <c r="G39" s="109" t="inlineStr">
         <is>
@@ -13729,7 +13822,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="113" t="n"/>
+      <c r="E40" s="100" t="n"/>
       <c r="F40" s="100" t="n"/>
       <c r="G40" s="109" t="inlineStr">
         <is>
@@ -13763,7 +13856,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="113" t="n"/>
+      <c r="E41" s="100" t="n"/>
       <c r="F41" s="100" t="n"/>
       <c r="G41" s="109" t="inlineStr">
         <is>
@@ -13797,7 +13890,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="113" t="n"/>
+      <c r="E42" s="100" t="n"/>
       <c r="F42" s="100" t="n"/>
       <c r="G42" s="109" t="inlineStr">
         <is>
@@ -13831,7 +13924,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E43" s="113" t="n"/>
+      <c r="E43" s="100" t="n"/>
       <c r="F43" s="100" t="n"/>
       <c r="G43" s="109" t="inlineStr">
         <is>
@@ -13865,7 +13958,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="113" t="n"/>
+      <c r="E44" s="100" t="n"/>
       <c r="F44" s="100" t="n"/>
       <c r="G44" s="109" t="inlineStr">
         <is>
@@ -13899,7 +13992,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="113" t="n"/>
+      <c r="E45" s="100" t="n"/>
       <c r="F45" s="100" t="n"/>
       <c r="G45" s="109" t="inlineStr">
         <is>
@@ -13971,7 +14064,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="113" t="n"/>
+      <c r="E47" s="100" t="n"/>
       <c r="F47" s="100" t="n"/>
       <c r="G47" s="109" t="inlineStr">
         <is>
@@ -14049,7 +14142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
@@ -14057,6 +14150,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="33" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="27" customWidth="1" min="7" max="7"/>
+    <col width="16" customWidth="1" min="8" max="8"/>
+    <col width="34" customWidth="1" min="9" max="9"/>
+    <col width="26" customWidth="1" min="10" max="10"/>
+    <col width="26" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="98" t="inlineStr">
@@ -14115,8 +14221,74 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="103" t="inlineStr">
+        <is>
+          <t>Cibax</t>
+        </is>
+      </c>
+      <c r="B2" s="100" t="inlineStr">
+        <is>
+          <t>Ivaté</t>
+        </is>
+      </c>
+      <c r="C2" s="100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" s="100" t="inlineStr">
+        <is>
+          <t>Anderson Bergamasco Hryczyna</t>
+        </is>
+      </c>
+      <c r="E2" s="100" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="F2" s="100" t="inlineStr">
+        <is>
+          <t>09.26</t>
+        </is>
+      </c>
+      <c r="G2" s="100" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H2" s="100" t="n"/>
+      <c r="I2" s="100" t="n"/>
+      <c r="J2" s="100" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K2" s="100" t="n"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="15" stopIfTrue="1">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="16" stopIfTrue="1">
+      <formula>"Não"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="15" stopIfTrue="1">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="16" stopIfTrue="1">
+      <formula>"Não"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation sqref="G2 J2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -14139,6 +14311,7 @@
     <col width="8.5703125" customWidth="1" min="3" max="3"/>
     <col width="17.28515625" customWidth="1" min="4" max="4"/>
     <col width="17.28515625" customWidth="1" min="10" max="10"/>
+    <col width="18" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -18770,7 +18943,7 @@
       </c>
       <c r="B20" s="92" t="inlineStr">
         <is>
-          <t>Santa Cruz do Monte Castelo</t>
+          <t>Santa Cruz de Monte Castelo</t>
         </is>
       </c>
       <c r="C20" s="95" t="n">
@@ -31873,7 +32046,7 @@
       </c>
       <c r="B20" s="92" t="inlineStr">
         <is>
-          <t>Santa Cruz do Monte Castelo</t>
+          <t>Santa Cruz de Monte Castelo</t>
         </is>
       </c>
       <c r="C20" s="95" t="n">
@@ -41185,7 +41358,7 @@
       </c>
       <c r="B27" s="100" t="inlineStr">
         <is>
-          <t>Santa Cruz do Monte Castelo</t>
+          <t>Santa Cruz de Monte Castelo</t>
         </is>
       </c>
       <c r="C27" s="100" t="n">
@@ -43087,7 +43260,7 @@
       </c>
       <c r="B27" s="100" t="inlineStr">
         <is>
-          <t>Santa Cruz do Monte Castelo</t>
+          <t>Santa Cruz de Monte Castelo</t>
         </is>
       </c>
       <c r="C27" s="100" t="n">
@@ -44976,7 +45149,7 @@
       </c>
       <c r="B27" s="100" t="inlineStr">
         <is>
-          <t>Santa Cruz do Monte Castelo</t>
+          <t>Santa Cruz de Monte Castelo</t>
         </is>
       </c>
       <c r="C27" s="100" t="n">
@@ -46865,7 +47038,7 @@
       </c>
       <c r="B27" s="100" t="inlineStr">
         <is>
-          <t>Santa Cruz do Monte Castelo</t>
+          <t>Santa Cruz de Monte Castelo</t>
         </is>
       </c>
       <c r="C27" s="100" t="n">
@@ -48754,7 +48927,7 @@
       </c>
       <c r="B27" s="100" t="inlineStr">
         <is>
-          <t>Santa Cruz do Monte Castelo</t>
+          <t>Santa Cruz de Monte Castelo</t>
         </is>
       </c>
       <c r="C27" s="100" t="n">
@@ -50643,7 +50816,7 @@
       </c>
       <c r="B27" s="100" t="inlineStr">
         <is>
-          <t>Santa Cruz do Monte Castelo</t>
+          <t>Santa Cruz de Monte Castelo</t>
         </is>
       </c>
       <c r="C27" s="100" t="n">
@@ -51223,15 +51396,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="101" t="inlineStr">
-        <is>
-          <t>Sem Técnico</t>
-        </is>
-      </c>
-      <c r="F42" s="100" t="n"/>
-      <c r="G42" s="102" t="inlineStr">
-        <is>
-          <t>Sim</t>
+      <c r="E42" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F42" s="100" t="inlineStr">
+        <is>
+          <t>01/10/2025</t>
+        </is>
+      </c>
+      <c r="G42" s="109" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H42" s="100" t="n"/>

--- a/outputs/expansao_ms_atualizado_form4.xlsx
+++ b/outputs/expansao_ms_atualizado_form4.xlsx
@@ -970,10 +970,10 @@
     <xf numFmtId="0" fontId="15" fillId="40" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="43" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="43" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="45" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -3151,15 +3151,15 @@
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="R12:S12"/>
+    <mergeCell ref="C11:I11"/>
     <mergeCell ref="M25:N25"/>
     <mergeCell ref="M21:N21"/>
-    <mergeCell ref="C21:D21"/>
     <mergeCell ref="O25:P25"/>
+    <mergeCell ref="A12:B25"/>
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="K19:P19"/>
-    <mergeCell ref="A12:B25"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K11:P11"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="M24:N24"/>
@@ -3174,7 +3174,7 @@
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="K11:P11"/>
     <mergeCell ref="E21:F21"/>
   </mergeCells>
   <conditionalFormatting sqref="T12">
@@ -4805,15 +4805,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="101" t="inlineStr">
-        <is>
-          <t>Sem Técnico</t>
-        </is>
-      </c>
-      <c r="F41" s="100" t="n"/>
-      <c r="G41" s="102" t="inlineStr">
-        <is>
-          <t>Sim</t>
+      <c r="E41" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F41" s="100" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="G41" s="109" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H41" s="100" t="n"/>
@@ -5128,10 +5132,10 @@
     <col width="32" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="5" max="5"/>
     <col width="27" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
-    <col width="16" customWidth="1" min="8" max="8"/>
+    <col width="42" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
     <col width="26" customWidth="1" min="11" max="11"/>
@@ -5214,7 +5218,7 @@
       </c>
       <c r="E2" s="110" t="inlineStr">
         <is>
-          <t>Atrasado &gt;= 2</t>
+          <t>Outras Ocorrências</t>
         </is>
       </c>
       <c r="F2" s="100" t="n"/>
@@ -5223,7 +5227,11 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="H2" s="100" t="n"/>
+      <c r="H2" s="100" t="inlineStr">
+        <is>
+          <t>Município sem Estrutura ou Associação</t>
+        </is>
+      </c>
       <c r="I2" s="100" t="n"/>
       <c r="J2" s="100" t="inlineStr">
         <is>
@@ -5250,12 +5258,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="110" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
-      <c r="F3" s="100" t="n"/>
+      <c r="E3" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F3" s="100" t="inlineStr">
+        <is>
+          <t>15/10/2025</t>
+        </is>
+      </c>
       <c r="G3" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5368,12 +5380,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="110" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
-      <c r="F6" s="100" t="n"/>
+      <c r="E6" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F6" s="100" t="inlineStr">
+        <is>
+          <t>10/10/2025</t>
+        </is>
+      </c>
       <c r="G6" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5406,7 +5422,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="110" t="inlineStr">
+      <c r="E7" s="111" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -5486,7 +5502,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="110" t="inlineStr">
+      <c r="E9" s="111" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -5608,12 +5624,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="110" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
-      <c r="F12" s="100" t="n"/>
+      <c r="E12" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F12" s="100" t="inlineStr">
+        <is>
+          <t>28/10/2025</t>
+        </is>
+      </c>
       <c r="G12" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5646,7 +5666,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="110" t="inlineStr">
+      <c r="E13" s="111" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -5684,7 +5704,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="110" t="inlineStr">
+      <c r="E14" s="111" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -5722,7 +5742,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="110" t="inlineStr">
+      <c r="E15" s="111" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -5760,7 +5780,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="110" t="inlineStr">
+      <c r="E16" s="111" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -5798,7 +5818,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="110" t="inlineStr">
+      <c r="E17" s="111" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -5836,7 +5856,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="110" t="inlineStr">
+      <c r="E18" s="111" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -5918,7 +5938,7 @@
       </c>
       <c r="E20" s="110" t="inlineStr">
         <is>
-          <t>Atrasado &gt;= 2</t>
+          <t>Outras Ocorrências</t>
         </is>
       </c>
       <c r="F20" s="100" t="n"/>
@@ -5927,7 +5947,11 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="H20" s="100" t="n"/>
+      <c r="H20" s="100" t="inlineStr">
+        <is>
+          <t>Município sem Estrutura ou Associação</t>
+        </is>
+      </c>
       <c r="I20" s="100" t="n"/>
       <c r="J20" s="100" t="inlineStr">
         <is>
@@ -5954,12 +5978,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="110" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
-      <c r="F21" s="100" t="n"/>
+      <c r="E21" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F21" s="100" t="inlineStr">
+        <is>
+          <t>08/10/2025</t>
+        </is>
+      </c>
       <c r="G21" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6030,7 +6058,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="110" t="inlineStr">
+      <c r="E23" s="111" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -6106,7 +6134,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="110" t="inlineStr">
+      <c r="E25" s="111" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -6144,7 +6172,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="110" t="inlineStr">
+      <c r="E26" s="111" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -6304,7 +6332,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="110" t="inlineStr">
+      <c r="E30" s="111" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -6342,7 +6370,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="110" t="inlineStr">
+      <c r="E31" s="111" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -6380,7 +6408,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="110" t="inlineStr">
+      <c r="E32" s="111" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -6418,14 +6446,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="111" t="inlineStr">
-        <is>
-          <t>Duplicado</t>
+      <c r="E33" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F33" s="100" t="inlineStr">
         <is>
-          <t>30/09/2025, 30/09/2025</t>
+          <t>30/09/2025</t>
         </is>
       </c>
       <c r="G33" s="102" t="inlineStr">
@@ -6439,10 +6467,14 @@
       </c>
       <c r="J33" s="100" t="inlineStr">
         <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K33" s="100" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K33" s="100" t="inlineStr">
+        <is>
+          <t>Deletado 5394</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="103" t="inlineStr">
@@ -6546,7 +6578,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="110" t="inlineStr">
+      <c r="E36" s="111" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -6584,12 +6616,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="110" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
-      <c r="F37" s="100" t="n"/>
+      <c r="E37" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F37" s="100" t="inlineStr">
+        <is>
+          <t>31/10/2025</t>
+        </is>
+      </c>
       <c r="G37" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6622,7 +6658,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="110" t="inlineStr">
+      <c r="E38" s="111" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -6702,7 +6738,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="110" t="inlineStr">
+      <c r="E40" s="111" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -6740,12 +6776,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="110" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
-      <c r="F41" s="100" t="n"/>
+      <c r="E41" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F41" s="100" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
       <c r="G41" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6778,7 +6818,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="110" t="inlineStr">
+      <c r="E42" s="111" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -6858,7 +6898,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="111" t="inlineStr">
+      <c r="E44" s="110" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -6900,7 +6940,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="110" t="inlineStr">
+      <c r="E45" s="111" t="inlineStr">
         <is>
           <t>Atrasado &gt;= 2</t>
         </is>
@@ -7075,10 +7115,10 @@
     <col width="32" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
-    <col width="16" customWidth="1" min="8" max="8"/>
+    <col width="42" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
     <col width="26" customWidth="1" min="11" max="11"/>
@@ -7159,9 +7199,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E2" s="110" t="inlineStr">
+        <is>
+          <t>Outras Ocorrências</t>
         </is>
       </c>
       <c r="F2" s="100" t="n"/>
@@ -7170,7 +7210,11 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="H2" s="100" t="n"/>
+      <c r="H2" s="100" t="inlineStr">
+        <is>
+          <t>Município sem Estrutura ou Associação</t>
+        </is>
+      </c>
       <c r="I2" s="100" t="n"/>
       <c r="J2" s="100" t="inlineStr">
         <is>
@@ -7197,9 +7241,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E3" s="111" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F3" s="100" t="n"/>
@@ -7357,9 +7401,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E7" s="111" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F7" s="100" t="n"/>
@@ -7395,9 +7439,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E8" s="111" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F8" s="100" t="n"/>
@@ -7433,9 +7477,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E9" s="111" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F9" s="100" t="n"/>
@@ -7471,9 +7515,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E10" s="111" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F10" s="100" t="n"/>
@@ -7509,12 +7553,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F11" s="100" t="n"/>
+      <c r="E11" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F11" s="100" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
       <c r="G11" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7547,12 +7595,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F12" s="100" t="n"/>
+      <c r="E12" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F12" s="100" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
       <c r="G12" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7585,9 +7637,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E13" s="111" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F13" s="100" t="n"/>
@@ -7623,12 +7675,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F14" s="100" t="n"/>
+      <c r="E14" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F14" s="100" t="inlineStr">
+        <is>
+          <t>31/10/2025</t>
+        </is>
+      </c>
       <c r="G14" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7661,9 +7717,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E15" s="111" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F15" s="100" t="n"/>
@@ -7699,9 +7755,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E16" s="111" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F16" s="100" t="n"/>
@@ -7737,9 +7793,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E17" s="111" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F17" s="100" t="n"/>
@@ -7775,9 +7831,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E18" s="111" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F18" s="100" t="n"/>
@@ -7813,12 +7869,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F19" s="100" t="n"/>
+      <c r="E19" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F19" s="100" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
       <c r="G19" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7851,9 +7911,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E20" s="110" t="inlineStr">
+        <is>
+          <t>Outras Ocorrências</t>
         </is>
       </c>
       <c r="F20" s="100" t="n"/>
@@ -7862,7 +7922,11 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="H20" s="100" t="n"/>
+      <c r="H20" s="100" t="inlineStr">
+        <is>
+          <t>Município sem Estrutura ou Associação</t>
+        </is>
+      </c>
       <c r="I20" s="100" t="n"/>
       <c r="J20" s="100" t="inlineStr">
         <is>
@@ -7969,9 +8033,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E23" s="111" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F23" s="100" t="n"/>
@@ -8045,12 +8109,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F25" s="100" t="n"/>
+      <c r="E25" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F25" s="100" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
       <c r="G25" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8083,9 +8151,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E26" s="111" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F26" s="100" t="n"/>
@@ -8121,9 +8189,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E27" s="111" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F27" s="100" t="n"/>
@@ -8159,9 +8227,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E28" s="111" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F28" s="100" t="n"/>
@@ -8235,9 +8303,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E30" s="111" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F30" s="100" t="n"/>
@@ -8273,9 +8341,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E31" s="111" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F31" s="100" t="n"/>
@@ -8311,12 +8379,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F32" s="100" t="n"/>
+      <c r="E32" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F32" s="100" t="inlineStr">
+        <is>
+          <t>09/10/2025</t>
+        </is>
+      </c>
       <c r="G32" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8349,12 +8421,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F33" s="100" t="n"/>
+      <c r="E33" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F33" s="100" t="inlineStr">
+        <is>
+          <t>10/10/2025</t>
+        </is>
+      </c>
       <c r="G33" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8387,12 +8463,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F34" s="100" t="n"/>
+      <c r="E34" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F34" s="100" t="inlineStr">
+        <is>
+          <t>10/10/2025</t>
+        </is>
+      </c>
       <c r="G34" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8425,9 +8505,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E35" s="111" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F35" s="100" t="n"/>
@@ -8463,9 +8543,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E36" s="111" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F36" s="100" t="n"/>
@@ -8501,12 +8581,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F37" s="100" t="n"/>
+      <c r="E37" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F37" s="100" t="inlineStr">
+        <is>
+          <t>31/10/2025</t>
+        </is>
+      </c>
       <c r="G37" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8539,9 +8623,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E38" s="111" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F38" s="100" t="n"/>
@@ -8577,9 +8661,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E39" s="111" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F39" s="100" t="n"/>
@@ -8615,9 +8699,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E40" s="111" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F40" s="100" t="n"/>
@@ -8695,9 +8779,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E42" s="111" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F42" s="100" t="n"/>
@@ -8733,12 +8817,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E43" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F43" s="100" t="n"/>
+      <c r="E43" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F43" s="100" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
       <c r="G43" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8771,12 +8859,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F44" s="100" t="n"/>
+      <c r="E44" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F44" s="100" t="inlineStr">
+        <is>
+          <t>10/10/2025</t>
+        </is>
+      </c>
       <c r="G44" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8809,9 +8901,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E45" s="111" t="inlineStr">
+        <is>
+          <t>Atrasado &gt;= 2</t>
         </is>
       </c>
       <c r="F45" s="100" t="n"/>
@@ -8885,12 +8977,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F47" s="100" t="n"/>
+      <c r="E47" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F47" s="100" t="inlineStr">
+        <is>
+          <t>08/10/2025</t>
+        </is>
+      </c>
       <c r="G47" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8980,10 +9076,10 @@
     <col width="32" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
-    <col width="16" customWidth="1" min="8" max="8"/>
+    <col width="42" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
     <col width="26" customWidth="1" min="11" max="11"/>
@@ -9064,14 +9160,22 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="100" t="n"/>
+      <c r="E2" s="110" t="inlineStr">
+        <is>
+          <t>Outras Ocorrências</t>
+        </is>
+      </c>
       <c r="F2" s="100" t="n"/>
       <c r="G2" s="109" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
       </c>
-      <c r="H2" s="100" t="n"/>
+      <c r="H2" s="100" t="inlineStr">
+        <is>
+          <t>Município sem Estrutura ou Associação</t>
+        </is>
+      </c>
       <c r="I2" s="100" t="n"/>
       <c r="J2" s="100" t="inlineStr">
         <is>
@@ -9098,7 +9202,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="100" t="n"/>
+      <c r="E3" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F3" s="100" t="n"/>
       <c r="G3" s="109" t="inlineStr">
         <is>
@@ -9170,7 +9278,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="100" t="n"/>
+      <c r="E5" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F5" s="100" t="n"/>
       <c r="G5" s="109" t="inlineStr">
         <is>
@@ -9204,7 +9316,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="100" t="n"/>
+      <c r="E6" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F6" s="100" t="n"/>
       <c r="G6" s="109" t="inlineStr">
         <is>
@@ -9238,7 +9354,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="100" t="n"/>
+      <c r="E7" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F7" s="100" t="n"/>
       <c r="G7" s="109" t="inlineStr">
         <is>
@@ -9272,7 +9392,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="100" t="n"/>
+      <c r="E8" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F8" s="100" t="n"/>
       <c r="G8" s="109" t="inlineStr">
         <is>
@@ -9306,7 +9430,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="100" t="n"/>
+      <c r="E9" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F9" s="100" t="n"/>
       <c r="G9" s="109" t="inlineStr">
         <is>
@@ -9340,7 +9468,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="100" t="n"/>
+      <c r="E10" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F10" s="100" t="n"/>
       <c r="G10" s="109" t="inlineStr">
         <is>
@@ -9374,8 +9506,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="100" t="n"/>
-      <c r="F11" s="100" t="n"/>
+      <c r="E11" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F11" s="100" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
       <c r="G11" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -9408,7 +9548,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="100" t="n"/>
+      <c r="E12" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F12" s="100" t="n"/>
       <c r="G12" s="109" t="inlineStr">
         <is>
@@ -9442,7 +9586,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="100" t="n"/>
+      <c r="E13" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F13" s="100" t="n"/>
       <c r="G13" s="109" t="inlineStr">
         <is>
@@ -9476,8 +9624,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="100" t="n"/>
-      <c r="F14" s="100" t="n"/>
+      <c r="E14" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F14" s="100" t="inlineStr">
+        <is>
+          <t>03/11/2025</t>
+        </is>
+      </c>
       <c r="G14" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -9510,7 +9666,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="100" t="n"/>
+      <c r="E15" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F15" s="100" t="n"/>
       <c r="G15" s="109" t="inlineStr">
         <is>
@@ -9544,7 +9704,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="100" t="n"/>
+      <c r="E16" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F16" s="100" t="n"/>
       <c r="G16" s="109" t="inlineStr">
         <is>
@@ -9578,7 +9742,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="100" t="n"/>
+      <c r="E17" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F17" s="100" t="n"/>
       <c r="G17" s="109" t="inlineStr">
         <is>
@@ -9612,8 +9780,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="100" t="n"/>
-      <c r="F18" s="100" t="n"/>
+      <c r="E18" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F18" s="100" t="inlineStr">
+        <is>
+          <t>28/10/2025</t>
+        </is>
+      </c>
       <c r="G18" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -9646,7 +9822,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="100" t="n"/>
+      <c r="E19" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F19" s="100" t="n"/>
       <c r="G19" s="109" t="inlineStr">
         <is>
@@ -9680,14 +9860,22 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="100" t="n"/>
+      <c r="E20" s="110" t="inlineStr">
+        <is>
+          <t>Outras Ocorrências</t>
+        </is>
+      </c>
       <c r="F20" s="100" t="n"/>
       <c r="G20" s="109" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
       </c>
-      <c r="H20" s="100" t="n"/>
+      <c r="H20" s="100" t="inlineStr">
+        <is>
+          <t>Município sem Estrutura ou Associação</t>
+        </is>
+      </c>
       <c r="I20" s="100" t="n"/>
       <c r="J20" s="100" t="inlineStr">
         <is>
@@ -9714,7 +9902,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="100" t="n"/>
+      <c r="E21" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F21" s="100" t="n"/>
       <c r="G21" s="109" t="inlineStr">
         <is>
@@ -9786,7 +9978,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="100" t="n"/>
+      <c r="E23" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F23" s="100" t="n"/>
       <c r="G23" s="109" t="inlineStr">
         <is>
@@ -9858,7 +10054,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="100" t="n"/>
+      <c r="E25" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F25" s="100" t="n"/>
       <c r="G25" s="109" t="inlineStr">
         <is>
@@ -9892,7 +10092,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="100" t="n"/>
+      <c r="E26" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F26" s="100" t="n"/>
       <c r="G26" s="109" t="inlineStr">
         <is>
@@ -9926,7 +10130,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="100" t="n"/>
+      <c r="E27" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F27" s="100" t="n"/>
       <c r="G27" s="109" t="inlineStr">
         <is>
@@ -9960,7 +10168,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="100" t="n"/>
+      <c r="E28" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F28" s="100" t="n"/>
       <c r="G28" s="109" t="inlineStr">
         <is>
@@ -10032,7 +10244,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="100" t="n"/>
+      <c r="E30" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F30" s="100" t="n"/>
       <c r="G30" s="109" t="inlineStr">
         <is>
@@ -10066,7 +10282,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="100" t="n"/>
+      <c r="E31" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F31" s="100" t="n"/>
       <c r="G31" s="109" t="inlineStr">
         <is>
@@ -10100,7 +10320,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="100" t="n"/>
+      <c r="E32" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F32" s="100" t="n"/>
       <c r="G32" s="109" t="inlineStr">
         <is>
@@ -10134,7 +10358,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="100" t="n"/>
+      <c r="E33" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F33" s="100" t="n"/>
       <c r="G33" s="109" t="inlineStr">
         <is>
@@ -10168,7 +10396,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="100" t="n"/>
+      <c r="E34" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F34" s="100" t="n"/>
       <c r="G34" s="109" t="inlineStr">
         <is>
@@ -10202,7 +10434,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="100" t="n"/>
+      <c r="E35" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F35" s="100" t="n"/>
       <c r="G35" s="109" t="inlineStr">
         <is>
@@ -10236,7 +10472,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="100" t="n"/>
+      <c r="E36" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F36" s="100" t="n"/>
       <c r="G36" s="109" t="inlineStr">
         <is>
@@ -10270,7 +10510,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="100" t="n"/>
+      <c r="E37" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F37" s="100" t="n"/>
       <c r="G37" s="109" t="inlineStr">
         <is>
@@ -10304,7 +10548,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="100" t="n"/>
+      <c r="E38" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F38" s="100" t="n"/>
       <c r="G38" s="109" t="inlineStr">
         <is>
@@ -10338,7 +10586,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="100" t="n"/>
+      <c r="E39" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F39" s="100" t="n"/>
       <c r="G39" s="109" t="inlineStr">
         <is>
@@ -10372,7 +10624,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="100" t="n"/>
+      <c r="E40" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F40" s="100" t="n"/>
       <c r="G40" s="109" t="inlineStr">
         <is>
@@ -10406,7 +10662,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="100" t="n"/>
+      <c r="E41" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F41" s="100" t="n"/>
       <c r="G41" s="109" t="inlineStr">
         <is>
@@ -10440,7 +10700,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="100" t="n"/>
+      <c r="E42" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F42" s="100" t="n"/>
       <c r="G42" s="109" t="inlineStr">
         <is>
@@ -10474,7 +10738,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E43" s="100" t="n"/>
+      <c r="E43" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F43" s="100" t="n"/>
       <c r="G43" s="109" t="inlineStr">
         <is>
@@ -10508,7 +10776,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="100" t="n"/>
+      <c r="E44" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F44" s="100" t="n"/>
       <c r="G44" s="109" t="inlineStr">
         <is>
@@ -10542,7 +10814,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="100" t="n"/>
+      <c r="E45" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F45" s="100" t="n"/>
       <c r="G45" s="109" t="inlineStr">
         <is>
@@ -10614,7 +10890,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="100" t="n"/>
+      <c r="E47" s="112" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F47" s="100" t="n"/>
       <c r="G47" s="109" t="inlineStr">
         <is>
@@ -10705,10 +10985,10 @@
     <col width="32" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
-    <col width="16" customWidth="1" min="8" max="8"/>
+    <col width="42" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
     <col width="26" customWidth="1" min="11" max="11"/>
@@ -10789,14 +11069,22 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="100" t="n"/>
+      <c r="E2" s="110" t="inlineStr">
+        <is>
+          <t>Outras Ocorrências</t>
+        </is>
+      </c>
       <c r="F2" s="100" t="n"/>
       <c r="G2" s="109" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
       </c>
-      <c r="H2" s="100" t="n"/>
+      <c r="H2" s="100" t="inlineStr">
+        <is>
+          <t>Município sem Estrutura ou Associação</t>
+        </is>
+      </c>
       <c r="I2" s="100" t="n"/>
       <c r="J2" s="100" t="inlineStr">
         <is>
@@ -11405,14 +11693,22 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="100" t="n"/>
+      <c r="E20" s="110" t="inlineStr">
+        <is>
+          <t>Outras Ocorrências</t>
+        </is>
+      </c>
       <c r="F20" s="100" t="n"/>
       <c r="G20" s="109" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
       </c>
-      <c r="H20" s="100" t="n"/>
+      <c r="H20" s="100" t="inlineStr">
+        <is>
+          <t>Município sem Estrutura ou Associação</t>
+        </is>
+      </c>
       <c r="I20" s="100" t="n"/>
       <c r="J20" s="100" t="inlineStr">
         <is>
@@ -12430,10 +12726,10 @@
     <col width="32" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
-    <col width="16" customWidth="1" min="8" max="8"/>
+    <col width="42" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
     <col width="26" customWidth="1" min="11" max="11"/>
@@ -12514,14 +12810,22 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="100" t="n"/>
+      <c r="E2" s="110" t="inlineStr">
+        <is>
+          <t>Outras Ocorrências</t>
+        </is>
+      </c>
       <c r="F2" s="100" t="n"/>
       <c r="G2" s="109" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
       </c>
-      <c r="H2" s="100" t="n"/>
+      <c r="H2" s="100" t="inlineStr">
+        <is>
+          <t>Município sem Estrutura ou Associação</t>
+        </is>
+      </c>
       <c r="I2" s="100" t="n"/>
       <c r="J2" s="100" t="inlineStr">
         <is>
@@ -13130,14 +13434,22 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="100" t="n"/>
+      <c r="E20" s="110" t="inlineStr">
+        <is>
+          <t>Outras Ocorrências</t>
+        </is>
+      </c>
       <c r="F20" s="100" t="n"/>
       <c r="G20" s="109" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
       </c>
-      <c r="H20" s="100" t="n"/>
+      <c r="H20" s="100" t="inlineStr">
+        <is>
+          <t>Município sem Estrutura ou Associação</t>
+        </is>
+      </c>
       <c r="I20" s="100" t="n"/>
       <c r="J20" s="100" t="inlineStr">
         <is>
@@ -14142,7 +14454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
@@ -14150,19 +14462,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="33" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="22" customWidth="1" min="6" max="6"/>
-    <col width="27" customWidth="1" min="7" max="7"/>
-    <col width="16" customWidth="1" min="8" max="8"/>
-    <col width="34" customWidth="1" min="9" max="9"/>
-    <col width="26" customWidth="1" min="10" max="10"/>
-    <col width="26" customWidth="1" min="11" max="11"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="98" t="inlineStr">
@@ -14221,74 +14520,8 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="103" t="inlineStr">
-        <is>
-          <t>Cibax</t>
-        </is>
-      </c>
-      <c r="B2" s="100" t="inlineStr">
-        <is>
-          <t>Ivaté</t>
-        </is>
-      </c>
-      <c r="C2" s="100" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" s="100" t="inlineStr">
-        <is>
-          <t>Anderson Bergamasco Hryczyna</t>
-        </is>
-      </c>
-      <c r="E2" s="100" t="inlineStr">
-        <is>
-          <t>30/09/2025</t>
-        </is>
-      </c>
-      <c r="F2" s="100" t="inlineStr">
-        <is>
-          <t>09.26</t>
-        </is>
-      </c>
-      <c r="G2" s="100" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H2" s="100" t="n"/>
-      <c r="I2" s="100" t="n"/>
-      <c r="J2" s="100" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K2" s="100" t="n"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="15" stopIfTrue="1">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="2" operator="equal" dxfId="16" stopIfTrue="1">
-      <formula>"Não"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="15" stopIfTrue="1">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="2" operator="equal" dxfId="16" stopIfTrue="1">
-      <formula>"Não"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation sqref="G2 J2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"Sim,Não"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -14309,9 +14542,18 @@
   <cols>
     <col width="31.140625" customWidth="1" min="2" max="2"/>
     <col width="8.5703125" customWidth="1" min="3" max="3"/>
-    <col width="17.28515625" customWidth="1" min="4" max="4"/>
-    <col width="17.28515625" customWidth="1" min="10" max="10"/>
-    <col width="18" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="16.140625" customWidth="1" min="5" max="5"/>
+    <col width="16.85546875" customWidth="1" min="6" max="6"/>
+    <col width="18.5703125" customWidth="1" min="7" max="7"/>
+    <col width="16.7109375" customWidth="1" min="8" max="8"/>
+    <col width="17" customWidth="1" min="9" max="9"/>
+    <col width="19" customWidth="1" min="10" max="10"/>
+    <col width="23.7109375" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="20.140625" customWidth="1" min="13" max="13"/>
+    <col width="19.85546875" customWidth="1" min="14" max="14"/>
+    <col width="20.7109375" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">

--- a/outputs/expansao_ms_atualizado_form4.xlsx
+++ b/outputs/expansao_ms_atualizado_form4.xlsx
@@ -149,7 +149,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="47">
     <fill>
       <patternFill/>
     </fill>
@@ -410,6 +410,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="0031869b"/>
+        <bgColor rgb="0031869b"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF6400"/>
         <bgColor rgb="FFFF6400"/>
       </patternFill>
@@ -655,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -976,14 +982,17 @@
     <xf numFmtId="0" fontId="18" fillId="36" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="45" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="44" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="46" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
     <dxf>
       <font>
         <color theme="1"/>
@@ -1217,6 +1226,19 @@
         <patternFill patternType="solid">
           <fgColor rgb="00808080"/>
           <bgColor rgb="00808080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <color rgb="00FFFFFF"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="0031869b"/>
+          <bgColor rgb="0031869b"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3134,8 +3156,8 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="E23:F23"/>
+    <mergeCell ref="R21:T21"/>
     <mergeCell ref="G23:H23"/>
-    <mergeCell ref="R21:T21"/>
     <mergeCell ref="K12:P12"/>
     <mergeCell ref="C19:I19"/>
     <mergeCell ref="K21:L21"/>
@@ -3151,15 +3173,15 @@
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="R12:S12"/>
-    <mergeCell ref="C11:I11"/>
     <mergeCell ref="M25:N25"/>
+    <mergeCell ref="A12:B25"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="M21:N21"/>
+    <mergeCell ref="G24:H24"/>
     <mergeCell ref="O25:P25"/>
-    <mergeCell ref="A12:B25"/>
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="K19:P19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K11:P11"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="M24:N24"/>
@@ -3174,7 +3196,7 @@
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="C11:I11"/>
     <mergeCell ref="E21:F21"/>
   </mergeCells>
   <conditionalFormatting sqref="T12">
@@ -5094,7 +5116,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="22" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="21" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="23" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6898,7 +6920,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="110" t="inlineStr">
+      <c r="E44" s="112" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -7077,7 +7099,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="22" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="21" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="23" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7515,12 +7537,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="111" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
-      <c r="F10" s="100" t="n"/>
+      <c r="E10" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F10" s="100" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
       <c r="G10" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8661,12 +8687,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="111" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
-      <c r="F39" s="100" t="n"/>
+      <c r="E39" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F39" s="100" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
       <c r="G39" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -9038,7 +9068,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="22" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="21" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="23" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9077,7 +9107,7 @@
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
     <col width="23" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="27" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="42" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
@@ -9202,7 +9232,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="112" t="inlineStr">
+      <c r="E3" s="113" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
@@ -9280,17 +9310,25 @@
       </c>
       <c r="E5" s="112" t="inlineStr">
         <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F5" s="100" t="n"/>
+          <t>Duplicado</t>
+        </is>
+      </c>
+      <c r="F5" s="100" t="inlineStr">
+        <is>
+          <t>04/11/2025, 04/11/2025</t>
+        </is>
+      </c>
       <c r="G5" s="109" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
       </c>
       <c r="H5" s="100" t="n"/>
-      <c r="I5" s="100" t="n"/>
+      <c r="I5" s="100" t="inlineStr">
+        <is>
+          <t>ID 5564</t>
+        </is>
+      </c>
       <c r="J5" s="100" t="inlineStr">
         <is>
           <t>Não</t>
@@ -9316,7 +9354,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="112" t="inlineStr">
+      <c r="E6" s="113" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
@@ -9354,7 +9392,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="112" t="inlineStr">
+      <c r="E7" s="113" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
@@ -9392,7 +9430,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="112" t="inlineStr">
+      <c r="E8" s="113" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
@@ -9430,7 +9468,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="112" t="inlineStr">
+      <c r="E9" s="113" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
@@ -9468,7 +9506,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="112" t="inlineStr">
+      <c r="E10" s="113" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
@@ -9513,7 +9551,7 @@
       </c>
       <c r="F11" s="100" t="inlineStr">
         <is>
-          <t>14/10/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="G11" s="109" t="inlineStr">
@@ -9548,12 +9586,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F12" s="100" t="n"/>
+      <c r="E12" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F12" s="100" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
       <c r="G12" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -9586,7 +9628,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="112" t="inlineStr">
+      <c r="E13" s="113" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
@@ -9666,12 +9708,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F15" s="100" t="n"/>
+      <c r="E15" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F15" s="100" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
       <c r="G15" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -9704,7 +9750,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="112" t="inlineStr">
+      <c r="E16" s="113" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
@@ -9742,7 +9788,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="112" t="inlineStr">
+      <c r="E17" s="113" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
@@ -9822,12 +9868,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E19" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F19" s="100" t="n"/>
+      <c r="E19" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F19" s="100" t="inlineStr">
+        <is>
+          <t>04/11/2025</t>
+        </is>
+      </c>
       <c r="G19" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -9902,7 +9952,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="112" t="inlineStr">
+      <c r="E21" s="113" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
@@ -9978,7 +10028,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="112" t="inlineStr">
+      <c r="E23" s="113" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
@@ -10054,7 +10104,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="112" t="inlineStr">
+      <c r="E25" s="113" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
@@ -10092,7 +10142,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="112" t="inlineStr">
+      <c r="E26" s="113" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
@@ -10130,7 +10180,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="112" t="inlineStr">
+      <c r="E27" s="113" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
@@ -10168,7 +10218,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="112" t="inlineStr">
+      <c r="E28" s="113" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
@@ -10244,7 +10294,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="112" t="inlineStr">
+      <c r="E30" s="113" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
@@ -10282,7 +10332,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="112" t="inlineStr">
+      <c r="E31" s="113" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
@@ -10320,12 +10370,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E32" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F32" s="100" t="n"/>
+      <c r="E32" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F32" s="100" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
+      </c>
       <c r="G32" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -10358,12 +10412,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E33" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F33" s="100" t="n"/>
+      <c r="E33" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F33" s="100" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
       <c r="G33" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -10396,12 +10454,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F34" s="100" t="n"/>
+      <c r="E34" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F34" s="100" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
       <c r="G34" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -10434,7 +10496,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="112" t="inlineStr">
+      <c r="E35" s="113" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
@@ -10472,7 +10534,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="112" t="inlineStr">
+      <c r="E36" s="113" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
@@ -10510,7 +10572,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="112" t="inlineStr">
+      <c r="E37" s="113" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
@@ -10548,7 +10610,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="112" t="inlineStr">
+      <c r="E38" s="113" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
@@ -10586,12 +10648,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F39" s="100" t="n"/>
+      <c r="E39" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F39" s="100" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
       <c r="G39" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -10624,7 +10690,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E40" s="112" t="inlineStr">
+      <c r="E40" s="113" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
@@ -10662,7 +10728,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="112" t="inlineStr">
+      <c r="E41" s="113" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
@@ -10700,7 +10766,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="112" t="inlineStr">
+      <c r="E42" s="113" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
@@ -10738,7 +10804,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E43" s="112" t="inlineStr">
+      <c r="E43" s="113" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
@@ -10776,12 +10842,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F44" s="100" t="n"/>
+      <c r="E44" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F44" s="100" t="inlineStr">
+        <is>
+          <t>06/11/2025</t>
+        </is>
+      </c>
       <c r="G44" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -10814,7 +10884,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="112" t="inlineStr">
+      <c r="E45" s="113" t="inlineStr">
         <is>
           <t>Atrasado</t>
         </is>
@@ -10890,12 +10960,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="112" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F47" s="100" t="n"/>
+      <c r="E47" s="108" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F47" s="100" t="inlineStr">
+        <is>
+          <t>06/11/2025</t>
+        </is>
+      </c>
       <c r="G47" s="109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -10947,7 +11021,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="22" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="21" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="23" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12688,7 +12762,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="22" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="21" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="23" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14429,7 +14503,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="22" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="21" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="23" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42440,7 +42514,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="22" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="21" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="23" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44329,7 +44403,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="22" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="21" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="23" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46218,7 +46292,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="22" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="21" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="23" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48107,7 +48181,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="22" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="21" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="23" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49996,7 +50070,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="22" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="21" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="23" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51889,7 +51963,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="22" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="21" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="23" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
